--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
+    <t>1:0</t>
   </si>
   <si>
     <t>1</t>
@@ -59,13 +59,10 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>0:2</t>
+    <t>1:2</t>
   </si>
   <si>
     <t>114.00</t>
@@ -74,7 +71,7 @@
     <t>114.0000</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:28 AM</t>
+    <t>Monday, 15 September, 2025 9:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -732,7 +729,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -741,14 +738,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -758,14 +755,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -776,7 +773,7 @@
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c t="s" r="A10" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -784,13 +781,13 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c t="s" r="G10" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c t="s" r="K10" s="17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -62,7 +74,7 @@
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:2</t>
+    <t>0:2</t>
   </si>
   <si>
     <t>114.00</t>
@@ -71,7 +83,16 @@
     <t>114.0000</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:33 AM</t>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>Monday, 15 September, 2025 9:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -729,7 +750,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -738,14 +759,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -762,42 +783,108 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>258</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>21</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>21</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>22</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>25</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>315</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>28</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>29</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -816,10 +903,20 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -92,7 +92,7 @@
     <t>17.0000</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:36 AM</t>
+    <t>Monday, 15 September, 2025 9:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -83,6 +95,27 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -92,7 +125,40 @@
     <t>17.0000</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:37 AM</t>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>Monday, 15 September, 2025 9:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -766,7 +832,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -776,11 +842,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -792,14 +858,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -832,7 +898,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -842,49 +908,247 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>315</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>27</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>28</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>18</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>29</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>32</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>33</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>36</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>39</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>43</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>810</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -913,10 +1177,40 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -158,7 +158,7 @@
     <t>88.0000</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:42 AM</t>
+    <t>Monday, 15 September, 2025 9:44 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t>PURGATON 20MG 30 TAB.</t>
   </si>
   <si>
@@ -158,7 +170,40 @@
     <t>88.0000</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:44 AM</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Monday, 15 September, 2025 9:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1080,7 +1125,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1096,7 +1141,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1106,49 +1151,181 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>810</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>50</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>54</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>54</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>58</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>54</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>894.60000000000002</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>65</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>66</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1384,30 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -104,6 +113,21 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -125,6 +149,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -170,12 +203,18 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -203,7 +242,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:45 AM</t>
+    <t>Monday, 15 September, 2025 9:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -927,7 +966,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -936,14 +975,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -976,7 +1015,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1009,7 +1048,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1019,11 +1058,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1035,28 +1074,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1068,14 +1107,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1085,11 +1124,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1101,14 +1140,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1125,7 +1164,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1141,7 +1180,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1151,11 +1190,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1167,14 +1206,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1207,13 +1246,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1224,7 +1263,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1240,21 +1279,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1266,20 +1305,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1294,38 +1333,170 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>894.60000000000002</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>64</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>65</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>36</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>70</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>36</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>74</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>36</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1201.96</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>77</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>78</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>79</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1575,30 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -158,6 +170,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>LACTEOL FORTE 10 BILLION 6 SACHET</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -212,6 +233,21 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8260:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -236,13 +272,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>Monday, 15 September, 2025 9:52 AM</t>
+    <t>Monday, 15 September, 2025 9:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -949,7 +979,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -959,14 +989,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -982,7 +1012,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -999,7 +1029,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1008,14 +1038,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1025,11 +1055,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1041,14 +1071,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1058,11 +1088,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1074,28 +1104,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1107,20 +1137,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1147,7 +1177,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1157,11 +1187,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1173,14 +1203,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1190,11 +1220,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1206,14 +1236,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1246,7 +1276,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1256,14 +1286,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1272,14 +1302,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1289,11 +1319,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1305,14 +1335,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1329,7 +1359,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1345,7 +1375,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1355,11 +1385,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1371,28 +1401,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1404,28 +1434,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1437,66 +1467,198 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1201.96</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>77</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>78</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>66</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>79</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>18</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>40</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>80</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>18</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>40</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>83</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>85</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>86</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>40</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>14</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1394.96</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>87</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>88</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>89</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1595,10 +1757,30 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:54 AM</t>
+    <t>Monday, 15 September, 2025 9:55 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:55 AM</t>
+    <t>Monday, 15 September, 2025 9:56 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -272,7 +281,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:56 AM</t>
+    <t>Monday, 15 September, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,7 +1087,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1088,14 +1097,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1111,7 +1120,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1144,21 +1153,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1170,28 +1179,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1203,14 +1212,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1243,7 +1252,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1276,7 +1285,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1309,7 +1318,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1319,11 +1328,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1335,14 +1344,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1352,14 +1361,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1368,14 +1377,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1385,14 +1394,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1401,14 +1410,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1474,7 +1483,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1484,14 +1493,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1517,14 +1526,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1533,28 +1542,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1579,7 +1588,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1606,59 +1615,92 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>88</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>89</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>43</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>14</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1394.96</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>87</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>88</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>89</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1417.73</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>90</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>91</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>92</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1777,10 +1819,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:58 AM</t>
+    <t>Monday, 15 September, 2025 9:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALBENDAZOLE 400MG 6 TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -65,9 +80,6 @@
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -134,12 +146,21 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -197,9 +218,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>92.0000</t>
-  </si>
-  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -215,9 +233,6 @@
     <t>PURGATON 20MG 30 TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -281,7 +296,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:59 AM</t>
+    <t>Monday, 15 September, 2025 10:10 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -972,7 +987,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -981,14 +996,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1005,7 +1020,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1021,7 +1036,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1031,14 +1046,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1054,7 +1069,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1071,7 +1086,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1080,14 +1095,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1097,14 +1112,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1113,14 +1128,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1130,14 +1145,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1146,14 +1161,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1163,14 +1178,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1179,31 +1194,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1212,14 +1227,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1229,11 +1244,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1245,20 +1260,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1269,7 +1284,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1285,7 +1300,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1295,14 +1310,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1311,14 +1326,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1328,14 +1343,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1344,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1368,7 +1383,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1384,7 +1399,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1394,14 +1409,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1410,14 +1425,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1427,14 +1442,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1443,14 +1458,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1460,14 +1475,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1476,14 +1491,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1493,14 +1508,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1509,14 +1524,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1526,14 +1541,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1542,14 +1557,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1559,14 +1574,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1582,21 +1597,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1608,31 +1623,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1641,66 +1656,132 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1417.73</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>90</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>50</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>91</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>93</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>94</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>50</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>19</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1581.73</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>95</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>96</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>97</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1824,10 +1905,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALBENDAZOLE 400MG 6 TABS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -296,7 +308,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 10:10 AM</t>
+    <t>Monday, 15 September, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1003,7 +1015,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1013,14 +1025,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1029,14 +1041,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1053,7 +1065,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1069,7 +1081,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1079,14 +1091,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1102,7 +1114,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1119,7 +1131,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1128,14 +1140,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1145,14 +1157,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1161,14 +1173,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1178,14 +1190,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1194,14 +1206,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1211,14 +1223,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1227,14 +1239,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1267,13 +1279,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1300,13 +1312,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1317,7 +1329,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1333,7 +1345,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1343,14 +1355,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1359,14 +1371,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1376,14 +1388,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1392,14 +1404,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1409,14 +1421,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1425,14 +1437,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1446,10 +1458,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1458,14 +1470,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,14 +1487,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1498,7 +1510,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1508,14 +1520,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1524,14 +1536,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1541,14 +1553,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1557,14 +1569,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1574,14 +1586,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1590,14 +1602,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1630,7 +1642,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1640,11 +1652,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1656,31 +1668,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1689,31 +1701,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1722,66 +1734,99 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1581.73</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>95</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>96</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>97</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>98</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>54</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>24</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1596.73</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>99</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>100</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>101</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1915,10 +1960,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -44,51 +44,39 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
-  </si>
-  <si>
-    <t>20:0</t>
+    <t>ALBENDAZOLE 400MG 6 TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>ALBENDAZOLE 400MG 6 TABS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -131,6 +119,18 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -224,9 +224,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -308,7 +305,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 10:28 AM</t>
+    <t>Monday, 15 September, 2025 10:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1015,7 +1012,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1025,14 +1022,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1041,14 +1038,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1065,7 +1062,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1081,7 +1078,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1091,14 +1088,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1114,7 +1111,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1131,7 +1128,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1140,14 +1137,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1164,7 +1161,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1190,14 +1187,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1213,7 +1210,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1230,7 +1227,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1246,7 +1243,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1263,7 +1260,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1296,7 +1293,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1329,7 +1326,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1362,7 +1359,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1378,7 +1375,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1395,7 +1392,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1411,7 +1408,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1428,7 +1425,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1444,7 +1441,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1461,7 +1458,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1477,7 +1474,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1487,14 +1484,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1503,14 +1500,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1520,14 +1517,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1536,14 +1533,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1553,14 +1550,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1569,14 +1566,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1586,14 +1583,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1602,14 +1599,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1619,14 +1616,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1635,14 +1632,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1652,14 +1649,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1668,14 +1665,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1685,14 +1682,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1701,14 +1698,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1718,14 +1715,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1734,14 +1731,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1751,14 +1748,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1767,14 +1764,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1784,25 +1781,25 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
       <c r="P33" s="13">
-        <v>1596.73</v>
+        <v>1737.73</v>
       </c>
       <c r="Q33" s="13"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c t="s" r="A34" s="14">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1810,13 +1807,13 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c t="s" r="G34" s="15">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="16"/>
       <c t="s" r="K34" s="17">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -305,7 +305,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 10:34 AM</t>
+    <t>Monday, 15 September, 2025 10:35 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALBENDAZOLE 400MG 6 TABS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -305,7 +317,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 10:35 AM</t>
+    <t>Monday, 15 September, 2025 10:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1012,7 +1024,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1022,14 +1034,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1038,14 +1050,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1062,7 +1074,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1078,7 +1090,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1088,14 +1100,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1111,7 +1123,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1128,7 +1140,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1137,14 +1149,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1161,7 +1173,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1187,14 +1199,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1203,14 +1215,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1220,14 +1232,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1236,14 +1248,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,14 +1265,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1269,14 +1281,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1309,13 +1321,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1342,13 +1354,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1359,7 +1371,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1375,7 +1387,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1385,14 +1397,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1401,14 +1413,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1418,14 +1430,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1434,14 +1446,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1451,14 +1463,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1467,14 +1479,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1484,14 +1496,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1500,14 +1512,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1517,14 +1529,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1540,7 +1552,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,14 +1562,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,14 +1578,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1583,14 +1595,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,14 +1611,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1616,14 +1628,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,14 +1644,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1672,7 +1684,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1682,11 +1694,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1698,31 +1710,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1731,31 +1743,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1764,66 +1776,99 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1737.73</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>98</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>99</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>100</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>101</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>58</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>24</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1752.73</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>102</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>103</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>104</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1962,10 +2007,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
@@ -317,7 +326,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 10:55 AM</t>
+    <t>Monday, 15 September, 2025 11:25 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1331,14 +1340,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1347,31 +1356,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1380,28 +1389,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1413,14 +1422,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1453,7 +1462,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1486,7 +1495,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1519,7 +1528,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1533,7 +1542,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1545,14 +1554,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1566,10 +1575,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1578,14 +1587,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1602,7 +1611,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1618,7 +1627,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1684,7 +1693,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1694,14 +1703,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1727,14 +1736,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1743,28 +1752,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1789,7 +1798,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1816,59 +1825,92 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>104</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>61</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>24</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>25</v>
       </c>
-      <c t="s" r="Q33" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1752.73</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>102</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>103</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>104</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1756.5699999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>105</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>106</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>107</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2012,10 +2054,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:25 AM</t>
+    <t>Monday, 15 September, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -326,7 +335,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:30 AM</t>
+    <t>Monday, 15 September, 2025 11:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,7 +1603,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1604,14 +1613,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1644,7 +1653,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1660,7 +1669,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1726,7 +1735,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1736,14 +1745,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1752,14 +1761,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1769,14 +1778,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1785,28 +1794,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1858,7 +1867,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1868,49 +1877,82 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>107</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>61</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>24</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>25</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1756.5699999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>105</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>106</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>107</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1986.5699999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>108</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>109</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>110</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2059,10 +2101,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:31 AM</t>
+    <t>Monday, 15 September, 2025 11:42 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -89,6 +104,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -101,9 +125,6 @@
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
@@ -191,6 +212,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>295.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
   </si>
   <si>
@@ -296,6 +329,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -311,15 +353,21 @@
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -335,7 +383,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:42 AM</t>
+    <t>Monday, 15 September, 2025 11:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1059,7 +1107,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1068,14 +1116,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1085,11 +1133,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1101,14 +1149,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1118,11 +1166,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1134,7 +1182,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1151,14 +1199,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1174,7 +1222,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1207,7 +1255,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1217,14 +1265,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1240,7 +1288,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1250,14 +1298,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1273,7 +1321,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1283,11 +1331,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1299,14 +1347,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1316,14 +1364,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1332,14 +1380,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1349,14 +1397,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1365,14 +1413,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1389,7 +1437,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1405,24 +1453,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1431,14 +1479,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1448,14 +1496,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1464,7 +1512,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1481,14 +1529,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1504,21 +1552,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1530,14 +1578,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1547,11 +1595,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1563,14 +1611,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1580,11 +1628,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1596,7 +1644,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1613,11 +1661,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1629,14 +1677,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1646,14 +1694,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1662,14 +1710,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1679,11 +1727,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1695,14 +1743,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1712,11 +1760,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1728,14 +1776,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1745,14 +1793,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1761,14 +1809,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1778,14 +1826,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1794,14 +1842,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1811,11 +1859,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1827,7 +1875,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1840,15 +1888,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1860,31 +1908,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1893,66 +1941,231 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1986.5699999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>113</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>16</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>13</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>98</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>18</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>72</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>111</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>117</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>72</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>118</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>108</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>109</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>110</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>119</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>18</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>72</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>120</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>122</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>123</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>72</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>29</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2444.2800000000002</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>124</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>125</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>126</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2106,10 +2319,35 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:53 AM</t>
+    <t>Monday, 15 September, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -191,6 +191,15 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -374,16 +383,13 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:55 AM</t>
+    <t>Monday, 15 September, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1453,7 +1459,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1463,14 +1469,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1496,14 +1502,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1512,14 +1518,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1536,7 +1542,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1545,31 +1551,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1578,28 +1584,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1611,14 +1617,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1651,7 +1657,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1684,7 +1690,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1717,7 +1723,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1731,7 +1737,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1743,14 +1749,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1760,11 +1766,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1783,7 +1789,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1793,14 +1799,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1809,14 +1815,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1833,7 +1839,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1849,7 +1855,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1915,7 +1921,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1925,14 +1931,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1958,14 +1964,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1974,14 +1980,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1991,14 +1997,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2007,31 +2013,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2053,18 +2059,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2073,7 +2079,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2086,18 +2092,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2113,59 +2119,92 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>124</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>125</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>75</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>29</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2444.2800000000002</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>124</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>125</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>2501.2800000000002</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
         <v>126</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>127</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>128</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2344,10 +2383,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
   </si>
   <si>
@@ -257,6 +266,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -344,9 +362,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -389,7 +404,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:58 AM</t>
+    <t>Monday, 15 September, 2025 11:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1162,7 +1177,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1228,7 +1243,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1261,7 +1276,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1278,7 +1293,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1287,7 +1302,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1304,14 +1319,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>46</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1327,7 +1342,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1337,11 +1352,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1353,14 +1368,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1370,14 +1385,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1393,7 +1408,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1403,14 +1418,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1426,7 +1441,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1459,7 +1474,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1492,7 +1507,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1502,14 +1517,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1535,14 +1550,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1551,14 +1566,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1575,7 +1590,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1584,31 +1599,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1617,28 +1632,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1650,14 +1665,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1756,7 +1771,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1770,7 +1785,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1799,11 +1814,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1836,10 +1851,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1865,11 +1880,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1881,14 +1896,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1905,7 +1920,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1921,7 +1936,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1954,7 +1969,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1964,14 +1979,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1987,7 +2002,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1997,14 +2012,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2030,14 +2045,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2053,24 +2068,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2079,31 +2094,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2125,18 +2140,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2145,66 +2160,132 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>127</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>18</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>78</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>128</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>129</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>130</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>78</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>29</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>2501.2800000000002</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>126</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>127</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
-        <v>128</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2560.2800000000002</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>131</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>132</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>133</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2388,10 +2469,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -221,30 +221,30 @@
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>295.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>295.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -392,6 +392,15 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>فيانسيه كريم بخاخ</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -404,7 +413,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:59 AM</t>
+    <t>Monday, 15 September, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1573,7 +1582,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1583,14 +1592,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1599,7 +1608,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2045,7 +2054,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2200,7 +2209,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2214,10 +2223,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2243,49 +2252,82 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>133</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>78</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>29</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2560.2800000000002</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>131</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>132</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>133</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2651.2800000000002</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>134</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>135</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>136</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2479,10 +2521,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -113,6 +125,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
   </si>
   <si>
@@ -413,7 +434,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 12:04 PM</t>
+    <t>Monday, 15 September, 2025 12:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1186,7 +1207,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1196,14 +1217,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1212,14 +1233,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1229,11 +1250,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1245,14 +1266,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1262,14 +1283,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1278,14 +1299,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1295,11 +1316,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1311,7 +1332,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1328,14 +1349,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1351,7 +1372,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1384,7 +1405,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1394,14 +1415,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1417,7 +1438,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1427,14 +1448,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1450,7 +1471,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1460,11 +1481,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1476,14 +1497,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1493,14 +1514,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1509,14 +1530,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1526,11 +1547,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1542,14 +1563,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1559,14 +1580,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1575,14 +1596,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1592,14 +1613,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1608,14 +1629,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1625,14 +1646,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1648,24 +1669,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1674,14 +1695,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1691,14 +1712,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1707,20 +1728,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1747,7 +1768,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1757,11 +1778,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1773,7 +1794,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1790,11 +1811,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1806,7 +1827,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1823,11 +1844,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1839,14 +1860,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1856,11 +1877,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1872,14 +1893,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1889,11 +1910,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1905,14 +1926,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1922,14 +1943,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1945,7 +1966,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1978,7 +1999,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1988,14 +2009,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2004,14 +2025,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2021,11 +2042,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2037,14 +2058,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2054,14 +2075,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2070,14 +2091,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2087,14 +2108,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2103,14 +2124,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2120,14 +2141,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2136,31 +2157,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2169,31 +2190,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2202,31 +2223,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2235,7 +2256,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2248,18 +2269,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2268,66 +2289,132 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>137</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>18</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>85</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>138</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>140</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>85</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>29</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2651.2800000000002</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>134</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>135</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>136</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2720.02</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>141</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>142</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>143</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2526,10 +2613,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -210,6 +219,12 @@
   </si>
   <si>
     <t>114.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>31.6800</t>
   </si>
   <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
@@ -1405,7 +1420,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1422,7 +1437,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1431,7 +1446,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1448,14 +1463,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1471,7 +1486,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1481,11 +1496,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1497,14 +1512,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1514,14 +1529,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1537,7 +1552,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1547,14 +1562,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1570,7 +1585,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1603,7 +1618,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1613,14 +1628,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1629,14 +1644,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1646,14 +1661,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1662,14 +1677,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1679,14 +1694,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1695,14 +1710,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1712,14 +1727,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1728,31 +1743,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1761,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1778,14 +1793,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1794,28 +1809,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1827,14 +1842,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1844,11 +1859,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1860,7 +1875,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1877,11 +1892,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1893,7 +1908,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1910,11 +1925,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1926,14 +1941,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1943,11 +1958,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1966,7 +1981,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1999,7 +2014,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2009,14 +2024,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2025,14 +2040,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2042,11 +2057,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2058,14 +2073,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2075,14 +2090,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2091,14 +2106,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2108,11 +2123,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2124,14 +2139,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2141,14 +2156,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2164,7 +2179,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2174,14 +2189,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2190,14 +2205,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2207,14 +2222,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2230,24 +2245,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2256,31 +2271,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2296,24 +2311,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>136</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2335,7 +2350,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2343,10 +2358,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2362,59 +2377,125 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>18</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>90</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>143</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>144</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>145</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>90</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>29</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2720.02</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>141</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>142</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>143</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2939.6999999999998</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>146</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>147</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>148</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2623,10 +2704,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -413,6 +413,15 @@
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
+    <t>جل فاتيكا امبوبه</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -449,7 +458,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 12:06 PM</t>
+    <t>Monday, 15 September, 2025 12:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2311,7 +2320,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2321,14 +2330,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,14 +2396,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2410,7 +2419,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2424,10 +2433,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2453,49 +2462,82 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>147</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>148</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>90</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>29</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2939.6999999999998</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>146</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>147</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>148</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2969.6999999999998</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>149</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>150</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>151</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2714,10 +2756,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -458,7 +458,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 12:10 PM</t>
+    <t>Monday, 15 September, 2025 12:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -191,6 +191,15 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -257,9 +266,6 @@
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>108.0000</t>
   </si>
   <si>
@@ -398,6 +404,18 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -425,10 +443,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -437,6 +455,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>فيانسيه كريم بخاخ</t>
   </si>
   <si>
@@ -458,7 +479,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 12:11 PM</t>
+    <t>Monday, 15 September, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1528,7 +1549,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1538,14 +1559,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1554,14 +1575,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1571,14 +1592,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1594,7 +1615,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1604,14 +1625,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1627,7 +1648,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1637,14 +1658,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1653,14 +1674,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1670,14 +1691,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1693,7 +1714,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1726,7 +1747,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1736,14 +1757,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1759,7 +1780,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1769,14 +1790,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1792,7 +1813,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1802,14 +1823,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1818,31 +1839,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1851,28 +1872,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1884,14 +1905,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1901,11 +1922,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1917,14 +1938,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1934,11 +1955,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1950,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1967,11 +1988,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2000,11 +2021,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2016,14 +2037,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2033,11 +2054,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2056,7 +2077,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2070,7 +2091,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2082,14 +2103,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2099,14 +2120,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2115,14 +2136,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2132,14 +2153,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2148,14 +2169,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2165,11 +2186,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2181,7 +2202,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2198,11 +2219,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2214,14 +2235,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2231,14 +2252,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2264,14 +2285,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2280,14 +2301,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2297,14 +2318,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,31 +2334,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2346,31 +2367,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2386,13 +2407,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2400,10 +2421,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2412,31 +2433,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2445,7 +2466,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2458,18 +2479,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2478,66 +2499,132 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>18</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>92</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>153</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>154</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>155</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>92</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>29</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2969.6999999999998</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>149</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>150</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>151</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>3002.9000000000001</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>156</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>157</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>158</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2761,10 +2848,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 12:24 PM</t>
+    <t>Monday, 15 September, 2025 12:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -308,13 +308,22 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
   </si>
   <si>
     <t>41.00</t>
   </si>
   <si>
-    <t>41.0000</t>
+    <t>82.0000</t>
   </si>
   <si>
     <t>HALONACE 5 MG 10 TABS.</t>
@@ -479,7 +488,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 12:29 PM</t>
+    <t>Monday, 15 September, 2025 12:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1945,7 +1954,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1995,7 +2004,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2011,7 +2020,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2044,7 +2053,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2077,7 +2086,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2091,7 +2100,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2103,14 +2112,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2120,11 +2129,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2143,7 +2152,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2153,14 +2162,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2169,14 +2178,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2193,7 +2202,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2209,7 +2218,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2275,7 +2284,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2301,14 +2310,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2318,11 +2327,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2334,14 +2343,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2351,14 +2360,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2367,14 +2376,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2384,14 +2393,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2400,28 +2409,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2440,7 +2449,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2483,14 +2492,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>148</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2506,7 +2515,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2523,7 +2532,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2539,7 +2548,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2553,10 +2562,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2582,49 +2591,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>157</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>158</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>92</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>29</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>3002.9000000000001</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>156</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>157</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>158</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>3128.9000000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>159</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>160</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>161</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2858,10 +2900,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -398,6 +398,15 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -488,7 +497,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 12:32 PM</t>
+    <t>Monday, 15 September, 2025 12:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2284,7 +2293,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2317,7 +2326,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,11 +2369,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2426,14 +2435,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2442,28 +2451,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2482,7 +2491,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2548,7 +2557,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2565,7 +2574,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2581,7 +2590,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2595,10 +2604,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2624,49 +2633,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>160</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>161</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>92</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>29</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>3128.9000000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>159</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>160</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>161</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>3156.9000000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>162</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>163</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>164</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2905,10 +2947,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -497,7 +497,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 12:33 PM</t>
+    <t>Monday, 15 September, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -353,6 +353,18 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -425,9 +437,6 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -461,21 +470,24 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>فيانسيه كريم بخاخ</t>
   </si>
   <si>
@@ -497,7 +509,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 12:34 PM</t>
+    <t>Monday, 15 September, 2025 12:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2128,7 +2140,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2138,11 +2150,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2171,11 +2183,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2211,7 +2223,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2227,7 +2239,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,14 +2249,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2253,14 +2265,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2270,11 +2282,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2303,11 +2315,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,11 +2348,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2402,11 +2414,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2425,7 +2437,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2468,14 +2480,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2484,28 +2496,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2524,7 +2536,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2534,14 +2546,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>151</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2590,7 +2602,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2607,7 +2619,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2666,49 +2678,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>164</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>165</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>92</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>29</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>3156.9000000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>162</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>163</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>164</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>3234.9000000000001</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>166</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>167</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>168</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2952,10 +2997,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -353,6 +353,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>151.0000</t>
+  </si>
+  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
@@ -509,7 +518,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 12:51 PM</t>
+    <t>Monday, 15 September, 2025 1:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2140,7 +2149,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2150,11 +2159,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2166,14 +2175,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2187,7 +2196,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2199,14 +2208,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,11 +2225,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2239,7 +2248,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,14 +2258,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2265,14 +2274,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2289,7 +2298,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2305,7 +2314,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2338,7 +2347,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2371,7 +2380,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2404,7 +2413,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,14 +2423,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2430,14 +2439,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2447,11 +2456,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2470,7 +2479,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2480,14 +2489,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,14 +2505,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,14 +2522,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,28 +2538,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2569,7 +2578,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,14 +2588,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>157</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>158</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2668,7 +2677,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2682,10 +2691,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2711,49 +2720,82 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>167</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>168</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>92</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>29</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>3234.9000000000001</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>166</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>167</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>168</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>3385.9000000000001</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>169</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>170</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>171</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3002,10 +3044,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -116,6 +116,30 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -200,6 +224,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -212,6 +248,12 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -308,6 +350,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>GAST-REG 24MG/5ML 125ML SUSP</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
@@ -419,6 +470,9 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -443,6 +497,15 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -455,48 +518,57 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8260:0</t>
+    <t>8258:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>جل فاتيكا امبوبه</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>4.0000</t>
   </si>
   <si>
-    <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>جل فاتيكا امبوبه</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>فيانسيه كريم بخاخ</t>
   </si>
   <si>
@@ -518,7 +590,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 1:08 PM</t>
+    <t>Monday, 15 September, 2025 2:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1324,7 +1396,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1334,14 +1406,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1350,14 +1422,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1367,14 +1439,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1383,14 +1455,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1400,11 +1472,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1416,14 +1488,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1433,14 +1505,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1449,14 +1521,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1466,11 +1538,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1482,14 +1554,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1499,11 +1571,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1515,14 +1587,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1532,14 +1604,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1548,14 +1620,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1565,11 +1637,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1581,14 +1653,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1598,14 +1670,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1614,14 +1686,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1631,11 +1703,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1647,14 +1719,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1664,11 +1736,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -1680,14 +1752,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1697,11 +1769,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1713,14 +1785,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1730,14 +1802,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1746,14 +1818,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1763,11 +1835,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1779,14 +1851,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1796,14 +1868,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1812,14 +1884,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1829,14 +1901,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1845,14 +1917,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1862,14 +1934,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1878,14 +1950,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1895,14 +1967,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1911,20 +1983,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1961,14 +2033,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1977,14 +2049,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1994,14 +2066,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2010,7 +2082,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2027,14 +2099,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2043,28 +2115,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2076,14 +2148,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2093,11 +2165,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2109,14 +2181,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2126,11 +2198,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2142,7 +2214,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2159,11 +2231,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2175,14 +2247,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2192,14 +2264,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2208,14 +2280,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2225,11 +2297,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2241,7 +2313,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2258,11 +2330,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2274,14 +2346,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,14 +2363,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2307,14 +2379,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2324,11 +2396,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2340,14 +2412,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2357,11 +2429,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2373,14 +2445,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2390,11 +2462,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2406,14 +2478,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2423,11 +2495,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2439,14 +2511,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2456,11 +2528,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2472,14 +2544,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2489,14 +2561,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2505,14 +2577,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2522,14 +2594,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2538,14 +2610,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2555,11 +2627,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2571,28 +2643,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2604,7 +2676,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2617,18 +2689,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2637,31 +2709,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2677,13 +2749,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2710,13 +2782,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2724,10 +2796,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2736,66 +2808,330 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>172</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>16</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>13</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>148</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>173</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>105</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>106</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>174</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>176</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>18</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>106</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>170</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>179</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>18</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>106</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>180</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>183</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>18</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>106</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>184</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>186</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>21</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>106</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>187</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>189</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>18</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>106</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>190</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>191</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>192</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>106</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>29</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q55" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>3385.9000000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>169</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>170</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>171</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3702.52</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>193</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>194</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>195</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3049,10 +3385,50 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -590,7 +590,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 2:03 PM</t>
+    <t>Monday, 15 September, 2025 2:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -110,9 +122,6 @@
     <t>3:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -248,6 +257,18 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -428,9 +449,15 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>115.0000</t>
+  </si>
+  <si>
     <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -494,9 +521,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -539,15 +563,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>11.5000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -557,9 +584,6 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -572,12 +596,6 @@
     <t>فيانسيه كريم بخاخ</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -590,7 +608,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 2:10 PM</t>
+    <t>Monday, 15 September, 2025 2:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1347,7 +1365,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1380,7 +1398,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1406,14 +1424,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1422,14 +1440,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1439,14 +1457,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1455,14 +1473,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1495,7 +1513,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1512,7 +1530,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1528,7 +1546,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1545,7 +1563,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1594,7 +1612,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1627,7 +1645,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1660,7 +1678,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1677,7 +1695,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1686,7 +1704,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1703,14 +1721,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1726,7 +1744,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1743,7 +1761,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1759,7 +1777,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1769,14 +1787,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1785,14 +1803,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1802,11 +1820,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1818,14 +1836,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1835,11 +1853,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1851,14 +1869,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1868,14 +1886,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1901,11 +1919,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1917,14 +1935,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1934,11 +1952,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1950,14 +1968,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1967,11 +1985,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2000,14 +2018,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2016,14 +2034,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2033,14 +2051,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2066,14 +2084,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2082,14 +2100,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2099,14 +2117,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2115,31 +2133,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2165,14 +2183,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2181,20 +2199,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2221,7 +2239,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2231,11 +2249,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2247,14 +2265,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2264,14 +2282,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2280,7 +2298,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2297,11 +2315,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2313,14 +2331,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2330,14 +2348,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2346,7 +2364,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2363,11 +2381,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2379,14 +2397,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2396,11 +2414,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2412,14 +2430,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2452,7 +2470,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2466,7 +2484,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2478,14 +2496,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2495,11 +2513,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2511,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2528,14 +2546,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2544,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2561,11 +2579,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2577,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2594,14 +2612,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2610,14 +2628,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2627,11 +2645,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2643,14 +2661,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2660,11 +2678,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2676,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2693,11 +2711,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2709,14 +2727,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2726,14 +2744,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2742,14 +2760,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2759,11 +2777,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2775,14 +2793,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2792,11 +2810,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -2808,14 +2826,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2825,14 +2843,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2841,14 +2859,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2858,14 +2876,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2874,31 +2892,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2907,31 +2925,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2940,31 +2958,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2973,31 +2991,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3006,31 +3024,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3039,7 +3057,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3052,18 +3070,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3079,59 +3097,158 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3702.52</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>193</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>194</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>21</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>113</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>84</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>195</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>18</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>113</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>196</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>197</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>198</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>113</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>33</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3806.5</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>199</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>200</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>201</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3425,10 +3542,25 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -521,6 +521,15 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>VENTOCOUGH WITHOUT SUGAR SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -608,7 +617,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 2:42 PM</t>
+    <t>Monday, 15 September, 2025 2:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2833,7 +2842,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2866,7 +2875,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2883,7 +2892,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2899,7 +2908,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2958,28 +2967,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2998,7 +3007,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3031,7 +3040,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3041,14 +3050,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3057,7 +3066,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3074,14 +3083,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3114,7 +3123,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3130,7 +3139,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3140,11 +3149,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3156,14 +3165,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3173,14 +3182,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3206,49 +3215,82 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>200</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>201</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>113</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>33</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>34</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3806.5</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>199</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>200</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>201</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3831.5</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>202</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>203</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>204</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3557,10 +3599,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -617,7 +617,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 2:44 PM</t>
+    <t>Monday, 15 September, 2025 3:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -416,6 +416,12 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>LACTEOL FORTE 10 BILLION 6 SACHET</t>
   </si>
   <si>
@@ -530,6 +536,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -617,7 +629,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 3:12 PM</t>
+    <t>Monday, 15 September, 2025 3:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2446,21 +2458,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2472,7 +2484,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2489,11 +2501,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2505,14 +2517,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2522,11 +2534,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2538,14 +2550,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2555,14 +2567,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2588,14 +2600,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2621,14 +2633,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2670,14 +2682,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2687,11 +2699,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2720,11 +2732,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2753,11 +2765,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2786,11 +2798,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,14 +2831,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2835,14 +2847,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,14 +2864,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2868,14 +2880,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2885,11 +2897,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2918,11 +2930,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>26</v>
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2951,14 +2963,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2967,14 +2979,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3000,20 +3012,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3024,7 +3036,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3040,24 +3052,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3066,14 +3078,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3083,14 +3095,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>57</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3106,7 +3118,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,14 +3194,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3219,10 +3231,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3231,14 +3243,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,49 +3260,115 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>202</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>18</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>113</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>203</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>204</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>205</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>113</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>33</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>34</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3831.5</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>202</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>203</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>204</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3906.5</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>206</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>207</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>208</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3604,10 +3682,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -629,7 +629,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 3:14 PM</t>
+    <t>Monday, 15 September, 2025 4:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -128,15 +128,18 @@
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -551,6 +554,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -629,7 +641,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 4:04 PM</t>
+    <t>Monday, 15 September, 2025 4:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1485,7 +1497,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1494,14 +1506,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1511,11 +1523,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1527,7 +1539,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1544,11 +1556,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1560,7 +1572,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1577,11 +1589,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1593,7 +1605,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1610,11 +1622,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1626,7 +1638,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1643,11 +1655,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1659,7 +1671,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1676,11 +1688,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1692,7 +1704,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1709,11 +1721,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1725,7 +1737,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1742,14 +1754,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1758,7 +1770,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1775,11 +1787,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1791,7 +1803,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1808,11 +1820,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>26</v>
@@ -1824,14 +1836,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1841,11 +1853,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1857,14 +1869,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1874,11 +1886,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1890,14 +1902,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1907,11 +1919,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1923,14 +1935,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1940,11 +1952,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1956,14 +1968,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1973,11 +1985,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2006,11 +2018,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2022,14 +2034,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2039,11 +2051,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -2055,7 +2067,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2072,11 +2084,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2088,7 +2100,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2105,11 +2117,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2121,14 +2133,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2142,7 +2154,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2154,7 +2166,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2171,11 +2183,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2187,7 +2199,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2204,14 +2216,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2220,28 +2232,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2253,14 +2265,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2270,11 +2282,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2303,11 +2315,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2319,7 +2331,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2336,11 +2348,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2369,11 +2381,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2385,7 +2397,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2402,11 +2414,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2418,7 +2430,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2435,11 +2447,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2451,20 +2463,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2472,7 +2484,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2484,7 +2496,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2501,11 +2513,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2534,11 +2546,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,11 +2579,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2616,7 +2628,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2633,11 +2645,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2666,11 +2678,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2682,7 +2694,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2699,11 +2711,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2715,7 +2727,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2732,11 +2744,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2748,7 +2760,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2781,7 +2793,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2798,11 +2810,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2831,11 +2843,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,11 +2876,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -2880,7 +2892,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2897,11 +2909,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,11 +2942,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>26</v>
@@ -2946,7 +2958,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2963,11 +2975,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2996,14 +3008,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3036,7 +3048,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3052,7 +3064,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3062,14 +3074,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3078,28 +3090,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3111,31 +3123,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3144,31 +3156,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3177,7 +3189,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3190,18 +3202,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3210,7 +3222,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3223,18 +3235,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3243,28 +3255,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3276,31 +3288,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3309,66 +3321,99 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>208</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>209</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>114</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>33</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>34</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3906.5</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>206</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>207</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>208</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3929.5</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>210</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>211</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>212</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3692,10 +3737,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -530,6 +530,9 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>VENTOCOUGH WITHOUT SUGAR SYRUP 125ML</t>
   </si>
   <si>
@@ -612,9 +615,6 @@
   </si>
   <si>
     <t>3.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -2866,7 +2866,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2880,10 +2880,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2909,11 +2909,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2925,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2975,11 +2975,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3008,11 +3008,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3041,11 +3041,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3057,14 +3057,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,11 +3074,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>113</v>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3140,11 +3140,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3156,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3239,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>84</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="71" ht="25.5" customHeight="1">
       <c r="P71" s="13">
-        <v>3929.5</v>
+        <v>3947.5</v>
       </c>
       <c r="Q71" s="13"/>
     </row>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 4:51 PM</t>
+    <t>Monday, 15 September, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -77,6 +77,12 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ALGESAL SURACTIVE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -92,6 +98,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANDOPENTENE XR 600 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -116,6 +131,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ARYTHREX 200MG 20 CAP</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -206,6 +230,18 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DANTRELAX COMPOUND 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -434,6 +470,9 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
     <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
@@ -458,9 +497,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -509,6 +545,15 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -641,7 +686,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 4:52 PM</t>
+    <t>Monday, 15 September, 2025 5:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1348,7 +1393,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1358,14 +1403,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1374,14 +1419,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1391,14 +1436,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1407,14 +1452,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1424,14 +1469,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1440,14 +1485,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1457,14 +1502,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1473,14 +1518,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1490,14 +1535,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1506,14 +1551,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1523,14 +1568,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1539,14 +1584,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1556,14 +1601,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1572,14 +1617,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1589,14 +1634,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1605,14 +1650,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1622,11 +1667,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1638,14 +1683,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1655,11 +1700,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1671,14 +1716,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1688,14 +1733,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1704,14 +1749,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1721,11 +1766,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1737,7 +1782,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1754,14 +1799,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1770,14 +1815,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1787,11 +1832,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1803,14 +1848,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1820,14 +1865,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1836,14 +1881,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1853,14 +1898,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1869,14 +1914,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,14 +1931,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1902,14 +1947,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1919,11 +1964,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1935,14 +1980,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,14 +1997,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1968,14 +2013,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +2030,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2001,14 +2046,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2041,7 +2086,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,14 +2096,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2067,14 +2112,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,11 +2129,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2100,14 +2145,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2117,14 +2162,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,14 +2178,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2195,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2211,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2228,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,14 +2244,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,14 +2261,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2239,21 +2284,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2265,14 +2310,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2327,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,14 +2343,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,14 +2360,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2331,7 +2376,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2348,14 +2393,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,31 +2409,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,14 +2442,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2437,7 +2482,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2470,21 +2515,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2496,14 +2541,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2558,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,14 +2574,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,11 +2591,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2562,14 +2607,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2602,24 +2647,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2673,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,11 +2690,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2661,31 +2706,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,14 +2739,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,11 +2756,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2727,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,11 +2789,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2760,14 +2805,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2822,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2793,14 +2838,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,11 +2855,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2826,14 +2871,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,14 +2888,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,7 +2921,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2899,7 +2944,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2932,7 +2977,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2942,14 +2987,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,14 +3003,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,14 +3020,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2991,14 +3036,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,11 +3053,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3024,14 +3069,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,14 +3086,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3119,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,14 +3135,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3107,11 +3152,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3123,31 +3168,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,31 +3201,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,7 +3234,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3202,18 +3247,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3229,13 +3274,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3243,10 +3288,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>84</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,31 +3300,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,28 +3333,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3321,31 +3366,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3354,66 +3399,264 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3947.5</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>210</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>211</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>212</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>214</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>18</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>126</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>205</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>215</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>18</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>126</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>216</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>217</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>18</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>126</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>218</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>220</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>21</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>126</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>97</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>221</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>18</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>126</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>222</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>223</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>224</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>126</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>38</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4270.5699999999997</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>225</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>226</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>227</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3742,10 +3985,40 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -686,7 +686,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 5:13 PM</t>
+    <t>Monday, 15 September, 2025 5:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -446,6 +446,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -644,6 +653,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن</t>
   </si>
   <si>
@@ -659,9 +677,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -686,7 +701,7 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 5:14 PM</t>
+    <t>Monday, 15 September, 2025 5:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2614,7 +2629,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2647,21 +2662,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2673,24 +2688,24 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2713,24 +2728,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2739,31 +2754,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2779,7 +2794,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2789,11 +2804,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2805,14 +2820,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2829,7 +2844,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2845,7 +2860,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2862,7 +2877,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2878,7 +2893,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2888,14 +2903,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2904,14 +2919,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2928,7 +2943,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2944,7 +2959,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2977,7 +2992,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2987,11 +3002,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3003,14 +3018,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,14 +3035,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3060,7 +3075,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3109,7 +3124,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,11 +3134,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,7 +3167,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3175,7 +3190,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,14 +3200,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3201,14 +3216,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3218,14 +3233,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>85</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3241,7 +3256,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3274,7 +3289,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3291,7 +3306,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3307,7 +3322,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>125</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3333,14 +3348,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3350,14 +3365,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3366,28 +3381,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3406,7 +3421,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3416,14 +3431,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,14 +3480,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3482,14 +3497,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>96</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3498,7 +3513,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3515,14 +3530,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3548,14 +3563,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,7 +3579,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3581,14 +3596,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3614,49 +3629,115 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>226</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>18</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>126</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>227</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>228</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>229</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>126</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>38</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>39</v>
       </c>
-      <c t="s" r="Q76" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4270.5699999999997</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>225</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>226</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>227</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4532.5699999999997</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>230</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>231</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>232</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4015,10 +4096,20 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -152,16 +152,16 @@
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
-    <t>1:4</t>
+    <t>1:3</t>
   </si>
   <si>
     <t>57.00</t>
   </si>
   <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>0:4</t>
+    <t>46.7400</t>
+  </si>
+  <si>
+    <t>0:5</t>
   </si>
   <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
@@ -230,18 +230,39 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DANTRELAX COMPOUND 30 CAPS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>153.00</t>
   </si>
   <si>
     <t>50.4900</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -266,10 +287,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -644,6 +662,18 @@
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
     <t>جل فاتيكا امبوبه</t>
   </si>
   <si>
@@ -677,6 +707,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -698,10 +731,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>Monday, 15 September, 2025 5:33 PM</t>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>Monday, 15 September, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1936,7 +1969,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1953,7 +1986,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1962,14 +1995,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1986,7 +2019,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2002,7 +2035,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2019,7 +2052,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2028,14 +2061,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2068,7 +2101,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2078,14 +2111,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2094,14 +2127,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2111,11 +2144,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2127,14 +2160,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2144,11 +2177,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2177,14 +2210,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2193,14 +2226,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2210,11 +2243,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2233,7 +2266,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2243,11 +2276,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>28</v>
@@ -2259,14 +2292,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2276,11 +2309,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2292,14 +2325,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2309,14 +2342,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2332,7 +2365,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2342,14 +2375,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2365,7 +2398,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2375,14 +2408,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2391,14 +2424,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2408,14 +2441,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2431,24 +2464,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2457,14 +2490,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2474,14 +2507,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2490,28 +2523,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2523,14 +2556,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2563,7 +2596,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2580,7 +2613,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2629,7 +2662,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2646,7 +2679,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2662,7 +2695,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2695,21 +2728,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2721,14 +2754,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2738,11 +2771,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2754,31 +2787,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2787,14 +2820,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2804,11 +2837,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2820,31 +2853,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2853,14 +2886,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2886,14 +2919,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2926,7 +2959,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2936,14 +2969,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2952,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2969,11 +3002,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2985,14 +3018,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3009,7 +3042,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3025,7 +3058,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3035,11 +3068,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3051,14 +3084,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3068,14 +3101,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3084,14 +3117,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3101,11 +3134,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>38</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3141,7 +3174,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3157,7 +3190,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3167,11 +3200,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3183,7 +3216,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3200,11 +3233,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3216,14 +3249,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3233,14 +3266,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3249,14 +3282,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3266,11 +3299,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3282,14 +3315,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3299,14 +3332,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3322,7 +3355,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3339,7 +3372,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3355,7 +3388,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3365,14 +3398,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3381,14 +3414,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3398,14 +3431,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3414,31 +3447,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3447,31 +3480,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3493,18 +3526,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3513,31 +3546,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3553,24 +3586,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3579,7 +3612,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3592,18 +3625,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3612,31 +3645,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3645,7 +3678,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3658,18 +3691,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3678,66 +3711,198 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4532.5699999999997</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>230</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>231</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>232</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>233</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>18</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>132</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>234</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>236</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>21</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>132</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>103</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>237</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>18</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>132</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>238</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>239</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>240</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>132</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>38</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4738.4750000000004</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>241</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>242</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>243</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4106,10 +4271,30 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -734,7 +734,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 5:36 PM</t>
+    <t>Monday, 15 September, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -65,21 +65,21 @@
     <t>ALBENDAZOLE 400MG 6 TABS</t>
   </si>
   <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>ALGESAL SURACTIVE CREAM 40 GM</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>ALGESAL SURACTIVE CREAM 40 GM</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
@@ -122,69 +122,84 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ARYTHREX 200MG 20 CAP</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>46.7400</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ARYTHREX 200MG 20 CAP</t>
-  </si>
-  <si>
-    <t>94.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>46.7400</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>5:5</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
     <t>18.0000</t>
   </si>
   <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -221,6 +236,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -263,6 +290,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEMOLIA FEMININE GEL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -272,9 +311,6 @@
     <t>63.3600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -317,9 +353,6 @@
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
@@ -329,7 +362,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>10:2</t>
   </si>
   <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
@@ -377,7 +410,7 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>3:4</t>
+    <t>6:4</t>
   </si>
   <si>
     <t>3.8400</t>
@@ -398,18 +431,12 @@
     <t>295.0000</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>83.00</t>
   </si>
   <si>
@@ -431,12 +458,6 @@
     <t>GAST-REG 24MG/5ML 125ML SUSP</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
@@ -527,7 +548,13 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>115.0000</t>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
   </si>
   <si>
     <t>PEPTIC CARE 14 ENTERIC COATED TAB</t>
@@ -569,6 +596,15 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
@@ -623,6 +659,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -683,6 +722,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -725,16 +776,10 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>Monday, 15 September, 2025 5:43 PM</t>
+    <t>Monday, 15 September, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1408,7 +1453,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1418,14 +1463,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1434,14 +1479,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1451,7 +1496,7 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
@@ -1738,7 +1783,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1748,11 +1793,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1764,7 +1809,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1781,14 +1826,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1797,14 +1842,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1814,14 +1859,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1830,14 +1875,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1847,11 +1892,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1863,14 +1908,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1880,11 +1925,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1896,14 +1941,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1913,11 +1958,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1929,14 +1974,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1946,14 +1991,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1962,14 +2007,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1979,14 +2024,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1995,14 +2040,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2012,11 +2057,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>28</v>
@@ -2028,14 +2073,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2045,14 +2090,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2061,14 +2106,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2078,14 +2123,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2094,31 +2139,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2127,14 +2172,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2144,14 +2189,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2160,14 +2205,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2177,11 +2222,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2193,14 +2238,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2210,14 +2255,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2243,11 +2288,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2259,14 +2304,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2276,14 +2321,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2292,14 +2337,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2309,11 +2354,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2325,14 +2370,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2342,14 +2387,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2358,14 +2403,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2375,14 +2420,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2391,14 +2436,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2408,11 +2453,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2424,14 +2469,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2441,11 +2486,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>28</v>
@@ -2457,14 +2502,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2474,14 +2519,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2490,14 +2535,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2507,14 +2552,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2523,31 +2568,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2563,7 +2608,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2573,14 +2618,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2589,14 +2634,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2606,14 +2651,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2622,28 +2667,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2655,14 +2700,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2679,7 +2724,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2695,7 +2740,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2705,11 +2750,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2721,14 +2766,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2738,11 +2783,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2754,7 +2799,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2771,14 +2816,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2787,28 +2832,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2820,14 +2865,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2837,11 +2882,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2853,31 +2898,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2886,24 +2931,24 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2926,7 +2971,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2936,11 +2981,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2952,31 +2997,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2985,7 +3030,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3002,11 +3047,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3018,14 +3063,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3035,14 +3080,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3051,14 +3096,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3068,14 +3113,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3084,31 +3129,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3117,14 +3162,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3134,11 +3179,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3150,14 +3195,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3167,11 +3212,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3183,14 +3228,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3200,11 +3245,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3216,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3233,11 +3278,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3249,14 +3294,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3266,14 +3311,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3289,7 +3334,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3299,11 +3344,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3315,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,11 +3377,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3348,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3365,11 +3410,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3381,14 +3426,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3398,11 +3443,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3414,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3431,14 +3476,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3447,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3464,14 +3509,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3480,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3497,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3513,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3530,11 +3575,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3553,21 +3598,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3579,31 +3624,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3612,31 +3657,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3645,31 +3690,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3685,24 +3730,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3711,31 +3756,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3744,28 +3789,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3777,28 +3822,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3810,31 +3855,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3843,66 +3888,264 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>247</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>22</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>94</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>227</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>248</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>22</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>94</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>242</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>250</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>22</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>94</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>251</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>253</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>20</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>94</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>114</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>254</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>22</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>94</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>239</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>255</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>216</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>94</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>38</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>54</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4738.4750000000004</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>241</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>242</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>243</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5005.8549999999996</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>256</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>257</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>258</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4291,10 +4534,40 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -779,7 +779,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 6:48 PM</t>
+    <t>Monday, 15 September, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -770,6 +770,9 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
     <t>فيانسيه كريم بخاخ</t>
   </si>
   <si>
@@ -779,7 +782,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 6:53 PM</t>
+    <t>Monday, 15 September, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4027,7 +4030,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4037,11 +4040,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4060,7 +4063,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4070,14 +4073,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4093,7 +4096,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4103,49 +4106,82 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>5005.8549999999996</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>256</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>216</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>94</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>38</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5045.8549999999996</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
         <v>257</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
         <v>258</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>259</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4564,10 +4600,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -752,6 +752,18 @@
     <t>11.5000</t>
   </si>
   <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -782,7 +794,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 6:55 PM</t>
+    <t>Monday, 15 September, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3931,7 +3943,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3941,14 +3953,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,7 +3969,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3974,14 +3986,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>249</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,7 +4002,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4007,14 +4019,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4040,11 +4052,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4056,14 +4068,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4073,11 +4085,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4089,14 +4101,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4106,14 +4118,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,14 +4134,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4139,49 +4151,82 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5045.8549999999996</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>257</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>258</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>259</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>260</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>216</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>94</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>38</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5080.8549999999996</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>261</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>262</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>263</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4605,10 +4650,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -794,7 +794,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 6:58 PM</t>
+    <t>Monday, 15 September, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -518,6 +518,9 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>LIT UP SOAP 100 GM</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -542,6 +545,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>NOVEX PANTHENOL PLUS CREAM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -716,12 +728,6 @@
     <t>جل فاتيكا امبوبه</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -794,7 +800,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 7:24 PM</t>
+    <t>Monday, 15 September, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3019,24 +3025,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3052,24 +3058,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3078,14 +3084,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3095,11 +3101,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3111,14 +3117,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3128,14 +3134,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3144,14 +3150,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3161,14 +3167,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3177,14 +3183,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3194,14 +3200,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3210,28 +3216,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3243,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3260,11 +3266,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3276,14 +3282,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,14 +3299,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3309,14 +3315,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,14 +3332,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3342,14 +3348,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3359,11 +3365,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3382,7 +3388,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3399,7 +3405,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3415,7 +3421,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3425,11 +3431,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3441,7 +3447,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3458,14 +3464,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3474,7 +3480,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3491,11 +3497,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3507,7 +3513,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3524,11 +3530,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3561,10 +3567,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3573,14 +3579,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,11 +3596,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,14 +3629,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3639,14 +3645,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3656,14 +3662,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3672,14 +3678,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3689,14 +3695,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3705,14 +3711,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3722,14 +3728,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3771,28 +3777,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3811,21 +3817,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3837,14 +3843,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3854,11 +3860,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3887,14 +3893,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3903,14 +3909,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3920,14 +3926,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,14 +3942,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3953,14 +3959,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3969,14 +3975,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3986,14 +3992,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4002,14 +4008,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4019,14 +4025,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4035,7 +4041,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4052,14 +4058,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4068,14 +4074,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4085,14 +4091,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4101,14 +4107,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4118,11 +4124,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4141,7 +4147,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4151,14 +4157,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4174,7 +4180,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4184,49 +4190,115 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>261</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>22</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>94</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>241</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>262</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>220</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>94</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>38</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>54</v>
       </c>
-      <c t="s" r="Q90" s="12">
+      <c t="s" r="Q92" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5080.8549999999996</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>261</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>262</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5175.8549999999996</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>263</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>264</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>265</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4655,10 +4727,20 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -800,7 +800,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 7:27 PM</t>
+    <t>Monday, 15 September, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -350,6 +350,15 @@
     <t>156.0000</t>
   </si>
   <si>
+    <t>DIARENT HAIR SERUM 200 ML</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -509,6 +518,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>KETORAL PLUS HAIR SHAMPOO 125ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>LACTEOL FORTE 10 BILLION 6 SACHET</t>
   </si>
   <si>
@@ -794,13 +812,19 @@
     <t>فيانسيه كريم بخاخ</t>
   </si>
   <si>
+    <t>ليفه</t>
+  </si>
+  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 7:29 PM</t>
+    <t>Monday, 15 September, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2365,7 +2389,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2398,7 +2422,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2408,11 +2432,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2424,14 +2448,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2441,14 +2465,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2464,7 +2488,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,14 +2498,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2507,14 +2531,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2523,14 +2547,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2540,14 +2564,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2563,7 +2587,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2596,7 +2620,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2606,14 +2630,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2629,7 +2653,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2639,14 +2663,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2655,14 +2679,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2672,14 +2696,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2695,24 +2719,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2721,28 +2745,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2754,14 +2778,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2771,11 +2795,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2787,14 +2811,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2804,11 +2828,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2827,7 +2851,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2844,7 +2868,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2877,7 +2901,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2893,7 +2917,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2926,7 +2950,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2959,21 +2983,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2985,24 +3009,24 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3035,11 +3059,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3051,31 +3075,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3084,14 +3108,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,11 +3125,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3117,31 +3141,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3150,7 +3174,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3163,15 +3187,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3183,14 +3207,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3204,10 +3228,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3216,14 +3240,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,14 +3257,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3249,14 +3273,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3266,14 +3290,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3289,21 +3313,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3315,14 +3339,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3332,11 +3356,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3348,14 +3372,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3372,7 +3396,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3388,7 +3412,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3405,7 +3429,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3421,7 +3445,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3431,11 +3455,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3447,14 +3471,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3464,14 +3488,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3480,14 +3504,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,11 +3521,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3537,7 +3561,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3563,11 +3587,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3579,7 +3603,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3596,11 +3620,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3612,14 +3636,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3633,10 +3657,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3645,14 +3669,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3685,7 +3709,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,14 +3719,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3711,14 +3735,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3735,7 +3759,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3751,7 +3775,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,14 +3785,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3777,14 +3801,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3794,14 +3818,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3810,14 +3834,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3827,14 +3851,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3843,28 +3867,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3876,28 +3900,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3909,14 +3933,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3926,11 +3950,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3942,14 +3966,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3959,14 +3983,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3975,14 +3999,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3992,14 +4016,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4015,7 +4039,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4025,14 +4049,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,14 +4065,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4058,14 +4082,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,14 +4098,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4091,14 +4115,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4107,7 +4131,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4124,14 +4148,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4140,14 +4164,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4157,14 +4181,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4173,14 +4197,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4190,11 +4214,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4206,14 +4230,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4223,14 +4247,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4239,14 +4263,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4256,49 +4280,181 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>267</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>241</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>94</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>247</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>268</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>22</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>94</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>247</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>37</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>94</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>14</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>270</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>226</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>94</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>38</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>54</v>
       </c>
-      <c t="s" r="Q92" s="12">
+      <c t="s" r="Q96" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5175.8549999999996</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>263</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>264</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>265</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5485.8549999999996</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>271</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>272</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>273</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4737,10 +4893,30 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -735,6 +735,15 @@
   </si>
   <si>
     <t>9:0</t>
+  </si>
+  <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2 سم</t>
@@ -3940,7 +3949,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3950,11 +3959,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,11 +3992,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3999,14 +4008,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>144</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4016,11 +4025,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4032,14 +4041,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4056,7 +4065,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4072,7 +4081,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4082,14 +4091,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4115,14 +4124,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4131,14 +4140,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4148,14 +4157,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4164,7 +4173,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4181,14 +4190,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>261</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4197,7 +4206,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4214,14 +4223,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>264</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4237,7 +4246,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4247,11 +4256,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4263,14 +4272,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4280,11 +4289,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4296,14 +4305,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4313,11 +4322,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4329,14 +4338,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4346,14 +4355,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4362,14 +4371,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4379,14 +4388,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4395,14 +4404,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4412,49 +4421,82 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>273</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>226</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>94</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>38</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>54</v>
       </c>
-      <c t="s" r="Q96" s="12">
+      <c t="s" r="Q97" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5485.8549999999996</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>271</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>272</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>273</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5680.8549999999996</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>274</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>275</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>276</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4913,10 +4955,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 7:34 PM</t>
+    <t>Monday, 15 September, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 7:35 PM</t>
+    <t>Monday, 15 September, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -167,213 +167,216 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>5:5</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DANTRELAX COMPOUND 30 CAPS.</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEMOLIA FEMININE GEL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>DIARENT HAIR SERUM 200 ML</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
     <t>48.0000</t>
   </si>
   <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CAPOZIDE 50/25MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DANTRELAX COMPOUND 30 CAPS.</t>
-  </si>
-  <si>
-    <t>153.00</t>
-  </si>
-  <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEMOLIA FEMININE GEL</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>115.00</t>
-  </si>
-  <si>
-    <t>115.0000</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>DIARENT HAIR SERUM 200 ML</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:2</t>
-  </si>
-  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -638,6 +641,9 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -731,6 +737,12 @@
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -800,6 +812,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>23:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -833,7 +848,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 7:36 PM</t>
+    <t>Monday, 15 September, 2025 7:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1821,7 +1836,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2478,7 +2493,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2490,14 +2505,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2511,7 +2526,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2523,7 +2538,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2540,11 +2555,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2556,7 +2571,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2577,7 +2592,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>28</v>
@@ -2589,7 +2604,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2606,11 +2621,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2622,7 +2637,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2639,11 +2654,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2655,14 +2670,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2676,7 +2691,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>28</v>
@@ -2688,7 +2703,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2709,7 +2724,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>56</v>
@@ -2721,7 +2736,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2738,11 +2753,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>37</v>
@@ -2754,14 +2769,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2771,11 +2786,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2787,14 +2802,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2804,11 +2819,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2820,14 +2835,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2853,7 +2868,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2870,11 +2885,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2886,7 +2901,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2903,11 +2918,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2919,7 +2934,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2936,11 +2951,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2952,7 +2967,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2969,11 +2984,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2985,7 +3000,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3002,11 +3017,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3018,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3039,7 +3054,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3051,7 +3066,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3068,11 +3083,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3084,7 +3099,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3101,11 +3116,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3117,7 +3132,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3150,7 +3165,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3171,7 +3186,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3183,7 +3198,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3200,11 +3215,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3216,14 +3231,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3233,11 +3248,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3249,7 +3264,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3266,11 +3281,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3282,7 +3297,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3299,7 +3314,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3315,7 +3330,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3332,11 +3347,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3348,7 +3363,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3365,11 +3380,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3381,14 +3396,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3398,11 +3413,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3414,7 +3429,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3431,11 +3446,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3447,7 +3462,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3464,11 +3479,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3480,7 +3495,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3497,11 +3512,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>62</v>
@@ -3513,7 +3528,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3546,14 +3561,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3563,11 +3578,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3579,7 +3594,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3596,14 +3611,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3612,7 +3627,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3629,11 +3644,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3645,7 +3660,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3662,7 +3677,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3695,11 +3710,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3711,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3728,14 +3743,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3761,14 +3776,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3777,14 +3792,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3794,11 +3809,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3810,14 +3825,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3827,14 +3842,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3843,14 +3858,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3860,14 +3875,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3876,14 +3891,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3893,14 +3908,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3909,14 +3924,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3926,11 +3941,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3949,21 +3964,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3975,28 +3990,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4008,14 +4023,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4025,11 +4040,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4041,14 +4056,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4058,11 +4073,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4074,14 +4089,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4091,14 +4106,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4107,14 +4122,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4124,14 +4139,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4140,14 +4155,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4157,14 +4172,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4173,14 +4188,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4190,14 +4205,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4206,14 +4221,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4223,14 +4238,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4239,7 +4254,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4256,14 +4271,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>267</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4279,7 +4294,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4289,14 +4304,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>70</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4305,14 +4320,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4322,11 +4337,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4338,14 +4353,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4355,11 +4370,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4371,14 +4386,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4388,14 +4403,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4404,14 +4419,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4421,11 +4436,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4437,14 +4452,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4454,49 +4469,115 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>38</v>
+        <v>254</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5680.8549999999996</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>274</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>275</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>276</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>277</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>37</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>94</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>14</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>278</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>228</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>94</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>38</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5832.5950000000003</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>279</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>280</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>281</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4960,10 +5041,20 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -368,6 +368,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -542,6 +548,15 @@
     <t>LIT UP SOAP 100 GM</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -683,9 +698,6 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -722,6 +734,12 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -734,6 +752,9 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>YEAST MEPACO 60 TABS</t>
+  </si>
+  <si>
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
@@ -848,7 +869,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 7:37 PM</t>
+    <t>Monday, 15 September, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2479,7 +2500,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2493,10 +2514,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2505,14 +2526,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2522,14 +2543,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2538,14 +2559,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2555,14 +2576,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2571,7 +2592,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2588,14 +2609,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2611,7 +2632,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2621,14 +2642,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2637,14 +2658,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2654,11 +2675,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2687,14 +2708,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2743,7 +2764,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2769,31 +2790,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2802,28 +2823,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2852,11 +2873,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2885,11 +2906,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2918,14 +2939,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2934,7 +2955,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2984,11 +3005,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3017,11 +3038,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3033,24 +3054,24 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3073,21 +3094,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3099,7 +3120,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3116,11 +3137,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3132,7 +3153,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3149,11 +3170,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3165,31 +3186,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3231,31 +3252,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3264,7 +3285,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3277,15 +3298,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3297,14 +3318,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3314,14 +3335,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3337,7 +3358,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3354,7 +3375,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3370,7 +3391,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3384,10 +3405,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3396,28 +3417,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3429,14 +3450,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3446,11 +3467,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3462,14 +3483,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3479,14 +3500,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3495,14 +3516,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,14 +3533,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3528,14 +3549,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3545,11 +3566,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3561,14 +3582,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,14 +3599,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3611,14 +3632,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3627,14 +3648,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3644,14 +3665,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3660,7 +3681,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3677,14 +3698,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3693,7 +3714,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3710,7 +3731,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3766,7 +3787,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3780,10 +3801,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3799,7 +3820,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3809,11 +3830,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3825,14 +3846,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,14 +3863,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3858,14 +3879,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3875,14 +3896,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3891,14 +3912,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,14 +3929,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3924,14 +3945,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3941,14 +3962,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3957,14 +3978,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3974,14 +3995,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3990,14 +4011,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4007,14 +4028,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4023,28 +4044,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4056,28 +4077,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4089,28 +4110,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4122,28 +4143,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4155,14 +4176,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4172,14 +4193,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4188,14 +4209,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4205,14 +4226,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,14 +4242,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4238,11 +4259,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4254,14 +4275,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4271,14 +4292,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>23</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>267</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4287,7 +4308,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4304,14 +4325,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>167</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>269</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4320,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4337,14 +4358,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4353,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4370,11 +4391,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>70</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4386,14 +4407,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4403,14 +4424,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4426,7 +4447,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4436,14 +4457,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4452,7 +4473,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4469,14 +4490,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4485,14 +4506,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4502,11 +4523,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4518,14 +4539,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4535,49 +4556,181 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>282</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>252</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>94</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>261</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>283</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>22</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>94</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>261</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q101" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5832.5950000000003</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>279</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>280</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>281</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>284</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>37</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>94</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>14</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>285</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>232</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>94</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>38</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5925.2150000000001</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>286</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>287</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>288</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5051,10 +5204,30 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -227,6 +227,21 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>-19.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -257,6 +272,9 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -341,9 +359,6 @@
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
@@ -359,6 +374,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>-44.5500</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -383,6 +407,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -521,6 +554,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -869,7 +914,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 7:42 PM</t>
+    <t>Monday, 15 September, 2025 8:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2038,7 +2083,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2048,14 +2093,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2064,14 +2109,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2081,11 +2126,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2097,14 +2142,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2114,11 +2159,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2130,14 +2175,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2147,14 +2192,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2163,14 +2208,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2180,14 +2225,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2196,14 +2241,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2213,11 +2258,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>28</v>
@@ -2229,31 +2274,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2262,14 +2307,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2279,14 +2324,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2295,20 +2340,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2335,7 +2380,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2345,11 +2390,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>62</v>
@@ -2361,14 +2406,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2401,7 +2446,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2411,14 +2456,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2427,14 +2472,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2444,11 +2489,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2460,14 +2505,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2477,11 +2522,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2493,14 +2538,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2510,14 +2555,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2533,24 +2578,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2566,7 +2611,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2576,14 +2621,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2599,7 +2644,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2609,14 +2654,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2625,14 +2670,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2642,14 +2687,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2665,7 +2710,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2698,7 +2743,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2708,14 +2753,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2731,7 +2776,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2741,14 +2786,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2764,7 +2809,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2774,14 +2819,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2797,7 +2842,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2814,7 +2859,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2830,21 +2875,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2856,14 +2901,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2873,14 +2918,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2889,14 +2934,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,14 +2951,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2922,7 +2967,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2939,14 +2984,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2955,20 +3000,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2979,7 +3024,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2995,7 +3040,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3005,11 +3050,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3021,14 +3066,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,11 +3083,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3054,14 +3099,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3071,11 +3116,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3087,31 +3132,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3127,7 +3172,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3193,7 +3238,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,11 +3248,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3219,14 +3264,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,14 +3281,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3252,31 +3297,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3285,14 +3330,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,11 +3347,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3318,14 +3363,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3335,11 +3380,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3351,28 +3396,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3384,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,14 +3446,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3417,28 +3462,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3507,7 +3552,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3523,13 +3568,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3556,7 +3601,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3570,10 +3615,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3582,31 +3627,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,14 +3660,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,11 +3677,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3648,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3665,11 +3710,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3681,7 +3726,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3698,14 +3743,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3714,14 +3759,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,11 +3776,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3747,14 +3792,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3764,14 +3809,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3780,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,11 +3842,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3813,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3830,14 +3875,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3846,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3863,11 +3908,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -3879,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,11 +3941,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3912,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,11 +3974,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3945,14 +3990,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,14 +4007,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3978,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3995,14 +4040,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4011,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,11 +4106,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4077,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,11 +4139,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4110,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4143,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4160,14 +4205,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4176,31 +4221,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4209,28 +4254,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4242,28 +4287,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4275,28 +4320,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4308,31 +4353,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,31 +4386,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4374,28 +4419,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4414,24 +4459,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>274</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4440,31 +4485,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>169</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4473,7 +4518,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4486,18 +4531,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4506,31 +4551,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4539,28 +4584,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>117</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>118</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4572,31 +4617,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4605,7 +4650,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4618,18 +4663,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4638,28 +4683,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4671,66 +4716,231 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>296</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5925.2150000000001</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>286</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>287</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>288</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>100</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>125</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>297</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>267</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>100</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>276</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>298</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>22</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>100</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>276</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>299</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>37</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>100</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>14</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>300</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>247</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>100</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>38</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5988.165</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>301</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>302</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>303</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5224,10 +5434,35 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -110,540 +110,549 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>90.4800</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ARYTHREX 200MG 20 CAP</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>46.7400</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>-19.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DANTRELAX COMPOUND 30 CAPS.</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEMOLIA FEMININE GEL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>DIARENT HAIR SERUM 200 ML</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>-44.5500</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:4</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>295.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 24MG/5ML 125ML SUSP</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KETORAL PLUS HAIR SHAMPOO 125ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>LACTEOL FORTE 10 BILLION 6 SACHET</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>LIT UP SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>151.0000</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>NOVEX PANTHENOL PLUS CREAM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ARYTHREX 200MG 20 CAP</t>
-  </si>
-  <si>
-    <t>94.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>46.7400</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CAPOZIDE 50/25MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>COLCHICINE 500MCG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>-19.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DANTRELAX COMPOUND 30 CAPS.</t>
-  </si>
-  <si>
-    <t>153.00</t>
-  </si>
-  <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEMOLIA FEMININE GEL</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>115.00</t>
-  </si>
-  <si>
-    <t>115.0000</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>DIARENT HAIR SERUM 200 ML</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>-44.5500</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:2</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:4</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>295.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSI-ZON  CREAM30MG</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 24MG/5ML 125ML SUSP</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>HALONACE 5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>KETORAL PLUS HAIR SHAMPOO 125ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>LACTEOL FORTE 10 BILLION 6 SACHET</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>LIT UP SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>151.00</t>
-  </si>
-  <si>
-    <t>151.0000</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>NOVEX PANTHENOL PLUS CREAM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -692,9 +701,6 @@
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
     <t>11.0000</t>
   </si>
   <si>
@@ -878,7 +884,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -896,6 +905,9 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
     <t>فلامنجو شفرات للنساء</t>
   </si>
   <si>
@@ -914,7 +926,16 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 8:02 PM</t>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
+    <t>مخمريه بلوب</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>Monday, 15 September, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1737,7 +1758,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -2248,7 +2269,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2258,11 +2279,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>28</v>
@@ -2274,14 +2295,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2291,11 +2312,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>28</v>
@@ -2307,14 +2328,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2324,11 +2345,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>28</v>
@@ -2340,7 +2361,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2353,15 +2374,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2373,7 +2394,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2390,11 +2411,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>62</v>
@@ -2406,7 +2427,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2423,11 +2444,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2439,7 +2460,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2456,11 +2477,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>62</v>
@@ -2472,14 +2493,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2489,11 +2510,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2505,7 +2526,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2522,11 +2543,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2538,7 +2559,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2555,11 +2576,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2571,7 +2592,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2584,15 +2605,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>76</v>
@@ -2604,7 +2625,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2621,11 +2642,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2637,7 +2658,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2658,7 +2679,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>28</v>
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2691,7 +2712,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2703,7 +2724,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2720,11 +2741,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2757,7 +2778,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>28</v>
@@ -2769,7 +2790,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2786,11 +2807,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2802,7 +2823,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2819,11 +2840,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>28</v>
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2852,11 +2873,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2868,7 +2889,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2885,11 +2906,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2922,7 +2943,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>28</v>
@@ -2934,7 +2955,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2951,11 +2972,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>56</v>
@@ -2967,7 +2988,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2984,11 +3005,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>37</v>
@@ -3000,28 +3021,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3050,11 +3071,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3099,7 +3120,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3116,11 +3137,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3132,7 +3153,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3149,11 +3170,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3165,7 +3186,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3182,11 +3203,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3198,7 +3219,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3215,11 +3236,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3231,7 +3252,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3248,11 +3269,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3264,14 +3285,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3281,11 +3302,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3297,20 +3318,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3318,7 +3339,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3330,7 +3351,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3347,11 +3368,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3363,7 +3384,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3380,11 +3401,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3396,7 +3417,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3413,11 +3434,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3429,14 +3450,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,11 +3467,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3462,7 +3483,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3475,7 +3496,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3483,7 +3504,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3495,7 +3516,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3512,11 +3533,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3528,14 +3549,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,11 +3566,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3561,7 +3582,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3574,15 +3595,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3594,31 +3615,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3640,7 +3661,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3648,10 +3669,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3660,20 +3681,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3684,7 +3705,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3700,7 +3721,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,14 +3731,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3726,14 +3747,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3750,7 +3771,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3766,7 +3787,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3799,7 +3820,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3816,7 +3837,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3832,7 +3853,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3863,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3879,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3896,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,14 +3912,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,11 +3929,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -3924,7 +3945,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3941,14 +3962,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3957,7 +3978,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3974,11 +3995,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3990,7 +4011,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4007,7 +4028,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4040,11 +4061,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4063,7 +4084,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4094,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4106,14 +4127,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,14 +4143,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,11 +4160,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4155,14 +4176,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4193,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,14 +4209,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,7 +4226,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4228,7 +4249,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4259,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4275,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4292,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4308,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,11 +4325,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4320,14 +4341,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,11 +4358,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4360,7 +4381,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,11 +4391,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4393,21 +4414,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4419,28 +4440,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4459,21 +4480,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4485,28 +4506,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>157</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4518,31 +4539,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,31 +4572,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,31 +4605,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4617,31 +4638,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4663,18 +4684,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,7 +4704,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4696,18 +4717,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>294</v>
-      </c>
-      <c t="s" r="Q102" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4723,21 +4744,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4749,28 +4770,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4782,28 +4803,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4815,31 +4836,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,28 +4869,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4881,66 +4902,198 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5988.165</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>301</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>302</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>303</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>37</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>99</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>14</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>304</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>249</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>99</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>38</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>305</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>16</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>99</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>288</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>306</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>56</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>99</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>307</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6340.165</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>308</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>309</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>310</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5459,10 +5612,30 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -935,7 +935,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 8:03 PM</t>
+    <t>Monday, 15 September, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEPOREX 500MG 12 TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>34.5000</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
   </si>
   <si>
@@ -245,9 +254,6 @@
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
     <t>69.0000</t>
   </si>
   <si>
@@ -698,6 +704,9 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>SELECTIVE FOLATE B12 TAB</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -935,7 +944,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 8:08 PM</t>
+    <t>Monday, 15 September, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2038,7 +2047,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2055,7 +2064,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2071,7 +2080,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2104,7 +2113,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2114,14 +2123,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2147,14 +2156,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2170,7 +2179,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2180,11 +2189,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2196,14 +2205,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2213,11 +2222,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2229,14 +2238,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2246,11 +2255,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2295,7 +2304,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2312,11 +2321,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>28</v>
@@ -2328,14 +2337,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>28</v>
@@ -2361,31 +2370,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2394,31 +2403,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2427,7 +2436,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2444,14 +2453,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2500,7 +2509,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2543,11 +2552,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2576,11 +2585,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2592,31 +2601,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2625,31 +2634,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2675,14 +2684,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2698,7 +2707,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2712,10 +2721,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2741,11 +2750,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2840,14 +2849,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2863,7 +2872,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2906,11 +2915,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2939,14 +2948,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2995,7 +3004,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3021,31 +3030,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3054,28 +3063,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3104,11 +3113,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3120,14 +3129,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3137,11 +3146,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3186,7 +3195,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3203,14 +3212,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3219,14 +3228,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3236,11 +3245,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3269,11 +3278,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3302,11 +3311,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3318,24 +3327,24 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3358,21 +3367,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3384,7 +3393,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3401,11 +3410,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3417,7 +3426,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3434,11 +3443,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3467,14 +3476,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3483,28 +3492,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3516,31 +3525,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3566,11 +3575,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3615,7 +3624,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3628,15 +3637,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3648,31 +3657,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3688,24 +3697,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3714,31 +3723,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,11 +3839,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,14 +3872,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3886,21 +3895,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3919,7 +3928,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4011,7 +4020,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4044,7 +4053,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4061,11 +4070,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4077,7 +4086,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4094,11 +4103,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>58</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4160,11 +4169,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4226,14 +4235,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4242,14 +4251,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,14 +4268,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4292,14 +4301,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,14 +4334,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4358,14 +4367,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4374,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4391,11 +4400,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4414,7 +4423,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4424,11 +4433,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4440,28 +4449,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4473,28 +4482,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4506,28 +4515,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4552,15 +4561,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4572,31 +4581,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4605,31 +4614,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4638,31 +4647,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4671,31 +4680,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>292</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4704,31 +4713,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>294</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4737,7 +4746,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4750,18 +4759,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4770,31 +4779,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4803,28 +4812,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4836,28 +4845,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4869,28 +4878,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4902,31 +4911,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>278</v>
+        <v>126</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4935,28 +4944,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>281</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4968,28 +4977,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5001,28 +5010,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5034,66 +5043,132 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6340.165</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>308</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>16</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>101</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>291</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>309</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>56</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>101</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
         <v>310</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6494.665</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>311</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>312</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>313</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5632,10 +5707,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ANTOPRAL 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>ARYTHREX 200MG 20 CAP</t>
   </si>
   <si>
@@ -617,6 +626,15 @@
     <t>151.0000</t>
   </si>
   <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
@@ -722,12 +740,15 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>126.00</t>
-  </si>
-  <si>
     <t>41.5800</t>
   </si>
   <si>
+    <t>TEBOFORTIN 40MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -788,9 +809,6 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>16.3200</t>
   </si>
   <si>
@@ -944,7 +962,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 8:11 PM</t>
+    <t>Monday, 15 September, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,7 +1834,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1833,7 +1851,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1849,7 +1867,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1859,7 +1877,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1892,14 +1910,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1908,14 +1926,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1925,14 +1943,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1941,14 +1959,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1958,14 +1976,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1974,14 +1992,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1998,7 +2016,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2007,7 +2025,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2024,14 +2042,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2047,7 +2065,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2080,7 +2098,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2097,7 +2115,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2113,7 +2131,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2146,7 +2164,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2156,14 +2174,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2172,14 +2190,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2189,14 +2207,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2205,14 +2223,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2222,11 +2240,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2238,14 +2256,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2278,7 +2296,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2288,11 +2306,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2304,14 +2322,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2321,14 +2339,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2377,7 +2395,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2387,11 +2405,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -2403,31 +2421,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2436,20 +2454,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2460,7 +2478,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2493,7 +2511,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2509,7 +2527,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2519,14 +2537,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2535,14 +2553,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2552,14 +2570,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2568,14 +2586,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2608,7 +2626,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2641,13 +2659,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2658,7 +2676,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2674,13 +2692,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2691,7 +2709,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2707,7 +2725,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2733,14 +2751,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2750,14 +2768,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2773,7 +2791,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2783,7 +2801,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2806,7 +2824,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2816,14 +2834,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2839,7 +2857,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2849,14 +2867,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2872,7 +2890,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2882,14 +2900,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2898,14 +2916,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2915,14 +2933,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2938,7 +2956,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2971,7 +2989,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2981,14 +2999,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3004,7 +3022,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3014,14 +3032,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3030,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3047,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3070,24 +3088,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3096,28 +3114,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3146,11 +3164,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3179,11 +3197,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3202,7 +3220,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3219,7 +3237,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3252,7 +3270,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3268,7 +3286,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3301,7 +3319,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3334,7 +3352,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3344,11 +3362,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3360,28 +3378,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3393,24 +3411,24 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3476,11 +3494,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3492,14 +3510,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3509,14 +3527,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3532,21 +3550,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3558,31 +3576,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3598,7 +3616,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3608,11 +3626,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3624,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3641,11 +3659,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3657,20 +3675,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3697,7 +3715,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3711,10 +3729,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3723,20 +3741,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3747,7 +3765,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3763,7 +3781,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3777,10 +3795,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3789,28 +3807,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3822,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3839,11 +3857,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3855,14 +3873,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3879,7 +3897,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3895,21 +3913,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3921,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3954,28 +3972,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3987,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4020,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4037,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4053,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4103,14 +4121,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4119,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4152,7 +4170,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4169,11 +4187,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4192,7 +4210,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,11 +4253,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4251,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,11 +4286,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4284,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,11 +4319,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>28</v>
@@ -4317,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,14 +4352,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,14 +4385,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4383,14 +4401,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,14 +4418,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4416,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4456,7 +4474,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4466,14 +4484,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4482,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4499,11 +4517,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4515,28 +4533,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4548,28 +4566,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4581,28 +4599,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>159</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4621,21 +4639,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>162</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4647,31 +4665,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,31 +4698,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4713,28 +4731,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4746,7 +4764,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4759,18 +4777,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>295</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4779,31 +4797,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>181</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>297</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4812,28 +4830,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4845,31 +4863,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4885,24 +4903,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>73</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4911,28 +4929,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4944,28 +4962,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4977,31 +4995,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5010,28 +5028,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5043,31 +5061,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5076,31 +5094,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5109,66 +5127,165 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>313</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>259</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>104</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>38</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q115" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6494.665</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>311</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>312</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>313</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>314</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>16</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>104</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>297</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>315</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>59</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>104</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>316</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>6801.8649999999998</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>317</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>318</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>319</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5717,10 +5834,25 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -197,6 +197,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>BG SKIN TONERAC NET</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -323,9 +335,6 @@
     <t>DEMOLIA FEMININE GEL</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>115.00</t>
   </si>
   <si>
@@ -941,6 +950,9 @@
     <t>فيانسيه كريم بخاخ</t>
   </si>
   <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
     <t>ليفه</t>
   </si>
   <si>
@@ -962,7 +974,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 8:12 PM</t>
+    <t>Monday, 15 September, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2032,24 +2044,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2082,7 +2094,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2108,11 +2120,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>28</v>
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2141,14 +2153,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2174,11 +2186,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2190,14 +2202,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2214,7 +2226,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2273,7 +2285,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2296,7 +2308,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2306,11 +2318,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2339,11 +2351,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2372,14 +2384,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2388,7 +2400,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2405,11 +2417,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2461,13 +2473,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2478,7 +2490,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2494,13 +2506,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2511,7 +2523,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2544,7 +2556,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2560,7 +2572,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2659,7 +2671,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2692,13 +2704,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2709,7 +2721,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2725,13 +2737,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2742,7 +2754,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2758,7 +2770,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2768,14 +2780,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2808,7 +2820,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2824,7 +2836,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2834,7 +2846,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2857,7 +2869,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2890,7 +2902,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2900,14 +2912,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2923,7 +2935,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2933,14 +2945,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2949,14 +2961,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2966,14 +2978,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2989,7 +3001,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3022,7 +3034,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3032,14 +3044,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3055,7 +3067,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,14 +3077,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3098,14 +3110,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3121,24 +3133,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3147,28 +3159,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,11 +3209,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,11 +3242,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3253,7 +3265,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3270,7 +3282,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3303,7 +3315,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3319,7 +3331,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3352,7 +3364,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3385,7 +3397,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3395,11 +3407,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3411,28 +3423,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3444,24 +3456,24 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3527,11 +3539,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3543,14 +3555,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,14 +3572,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3583,21 +3595,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3609,31 +3621,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>34</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3649,7 +3661,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3682,7 +3694,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3692,11 +3704,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3754,7 +3766,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3781,13 +3793,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3795,10 +3807,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3807,20 +3819,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3828,10 +3840,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3840,20 +3852,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3864,7 +3876,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3880,7 +3892,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,14 +3902,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3930,7 +3942,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3946,7 +3958,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3985,15 +3997,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4005,31 +4017,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4038,14 +4050,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,14 +4067,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,14 +4100,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,11 +4133,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>28</v>
@@ -4137,14 +4149,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,14 +4166,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4199,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4253,11 +4265,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>101</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4269,7 +4281,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4286,11 +4298,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4364,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4408,7 +4420,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4430,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4434,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,11 +4463,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4467,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,14 +4496,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>162</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,14 +4529,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4533,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,11 +4562,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4566,14 +4578,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,11 +4595,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4599,14 +4611,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>37</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4616,11 +4628,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4632,28 +4644,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4672,21 +4684,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4698,28 +4710,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4731,28 +4743,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4764,20 +4776,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4788,7 +4800,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4804,24 +4816,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4843,18 +4855,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,31 +4875,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>301</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4909,18 +4921,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4929,7 +4941,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4942,18 +4954,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q108" s="12">
         <v>306</v>
-      </c>
-      <c t="s" r="Q108" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4969,21 +4981,21 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>172</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4995,28 +5007,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5028,28 +5040,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5061,28 +5073,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5094,31 +5106,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5127,28 +5139,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5160,28 +5172,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5193,28 +5205,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>297</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5226,66 +5238,132 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>38</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>6801.8649999999998</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>317</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>318</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>16</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>63</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>300</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>319</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>59</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>63</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>320</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7050.8649999999998</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>321</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>322</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>323</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5849,10 +5927,20 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 8:53 PM</t>
+    <t>Monday, 15 September, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>59.7600</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -767,6 +767,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -869,88 +878,94 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>جل فاتيكا امبوبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>11.5000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>فيانسيه كريم بخاخ</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
     <t>27:0</t>
   </si>
   <si>
-    <t>جل فاتيكا امبوبه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>1:17</t>
-  </si>
-  <si>
-    <t>11.5000</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاور جل مود </t>
-  </si>
-  <si>
-    <t>فلامنجو شفرات للنساء</t>
-  </si>
-  <si>
-    <t>فيانسيه كريم بخاخ</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
+    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>ليفه</t>
@@ -974,7 +989,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 8:58 PM</t>
+    <t>Monday, 15 September, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2605,7 +2620,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2622,7 +2637,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -4255,7 +4270,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,11 +4313,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>105</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4314,7 +4329,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4331,11 +4346,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>105</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4347,14 +4362,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,14 +4379,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4380,14 +4395,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,14 +4428,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4453,7 +4468,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4479,14 +4494,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,11 +4511,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>28</v>
@@ -4512,14 +4527,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,14 +4544,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,14 +4560,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,14 +4577,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,14 +4593,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,11 +4610,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4611,14 +4626,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,11 +4643,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4644,14 +4659,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,11 +4676,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4677,28 +4692,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>170</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4717,7 +4732,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,11 +4742,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4743,14 +4758,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,14 +4775,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>165</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,11 +4808,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4833,7 +4848,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4849,7 +4864,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>296</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,14 +4874,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4892,14 +4907,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4923,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,14 +4940,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>304</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4958,14 +4973,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4974,7 +4989,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4991,14 +5006,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q109" s="12">
         <v>309</v>
-      </c>
-      <c t="s" r="Q109" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5014,7 +5029,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,11 +5039,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>174</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5040,14 +5055,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,11 +5072,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5073,14 +5088,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,11 +5105,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5106,14 +5121,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,11 +5138,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5139,14 +5154,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,11 +5171,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5172,7 +5187,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5189,14 +5204,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5205,14 +5220,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>37</v>
+        <v>284</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,11 +5237,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5238,14 +5253,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5255,11 +5270,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5271,14 +5286,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,11 +5303,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>301</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5304,14 +5319,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5321,49 +5336,115 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7050.8649999999998</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>321</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>322</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>323</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>16</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>63</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>303</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>324</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>59</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>63</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>325</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>7666.8649999999998</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>326</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>327</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>328</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5937,10 +6018,20 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -824,6 +824,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -938,7 +950,10 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -989,7 +1004,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 8:59 PM</t>
+    <t>Monday, 15 September, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4501,7 +4516,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4511,11 +4526,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>28</v>
@@ -4527,14 +4542,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4544,11 +4559,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4560,14 +4575,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4577,14 +4592,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4600,7 +4615,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4610,14 +4625,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4626,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4643,11 +4658,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4659,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4676,11 +4691,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4692,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>37</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4709,11 +4724,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4725,28 +4740,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>170</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4758,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>165</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4775,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4791,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4808,14 +4823,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4824,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>165</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4841,11 +4856,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4864,7 +4879,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>296</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4874,14 +4889,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4890,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4907,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4923,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4940,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4963,7 +4978,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4973,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>307</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4989,7 +5004,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5006,14 +5021,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5022,7 +5037,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5039,14 +5054,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5055,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5072,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>175</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5088,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5105,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5121,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5138,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5154,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5171,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>293</v>
+        <v>132</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>294</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5187,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5204,11 +5219,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5220,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5237,11 +5252,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5253,14 +5268,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5270,14 +5285,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5286,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5303,14 +5318,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5319,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5336,14 +5351,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5352,14 +5367,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5369,14 +5384,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>304</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5385,14 +5400,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5402,49 +5417,82 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>329</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>59</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>63</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>330</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
         <v>199</v>
       </c>
-      <c t="s" r="Q121" s="12">
+      <c t="s" r="Q122" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>7666.8649999999998</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>326</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>327</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>328</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7686.6949999999997</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>331</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>332</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>333</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6028,10 +6076,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -776,6 +776,9 @@
     <t>550.0000</t>
   </si>
   <si>
+    <t>TRILLERG EYE DROPS 10 ML</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -1004,7 +1007,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:05 PM</t>
+    <t>Monday, 15 September, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4318,7 +4321,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,11 +4331,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4344,7 +4347,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4361,11 +4364,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4377,7 +4380,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4394,11 +4397,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>105</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4410,14 +4413,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,14 +4430,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,14 +4446,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,14 +4463,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>105</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4479,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,11 +4496,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4509,14 +4512,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4529,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4545,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,11 +4562,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4575,14 +4578,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,11 +4595,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4608,14 +4611,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,14 +4628,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4641,14 +4644,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4661,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4681,7 +4684,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,11 +4694,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4714,7 +4717,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,11 +4727,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4740,14 +4743,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,11 +4760,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4773,28 +4776,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4806,14 +4809,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>165</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4826,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,14 +4842,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>165</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4859,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4879,7 +4882,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,11 +4892,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4905,14 +4908,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4925,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,14 +4941,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,14 +4958,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,14 +4974,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,14 +4991,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,14 +5007,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5024,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,7 +5040,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5054,14 +5057,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5070,7 +5073,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5087,14 +5090,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5106,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,11 +5123,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>174</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5143,7 +5146,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,11 +5156,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5176,7 +5179,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5189,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5209,7 +5212,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5222,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5235,14 +5238,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>323</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,11 +5255,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5275,7 +5278,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,11 +5288,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>297</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5308,7 +5311,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5321,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5341,7 +5344,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,14 +5354,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5374,7 +5377,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,14 +5387,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5407,7 +5410,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,14 +5420,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>308</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5440,7 +5443,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5450,49 +5453,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>330</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>59</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>63</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>331</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>199</v>
       </c>
-      <c t="s" r="Q122" s="12">
+      <c t="s" r="Q123" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7686.6949999999997</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>331</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7710.6949999999997</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>332</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
         <v>333</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>334</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6081,10 +6117,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -1007,7 +1007,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:06 PM</t>
+    <t>Monday, 15 September, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMPOFER 20MG/ML 5 AMP. FOR I.V. INJ./INF.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>ANDOPENTENE XR 600 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -173,6 +185,12 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -260,9 +278,6 @@
     <t>COLCHICINE 500MCG 100 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>190.00</t>
   </si>
   <si>
@@ -362,7 +377,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>59.7600</t>
+    <t>71.6400</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -410,9 +425,6 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>DOLCYL 2MG 30 TAB.</t>
   </si>
   <si>
@@ -668,9 +680,6 @@
     <t>NOVEX PANTHENOL PLUS CREAM</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -722,6 +731,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
   </si>
   <si>
@@ -878,9 +899,6 @@
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -893,7 +911,7 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>جل فاتيكا امبوبه</t>
@@ -902,90 +920,90 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>45:0</t>
+    <t>44:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>11.5000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
+    <t>فيانسيه كريم بخاخ</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>1:17</t>
-  </si>
-  <si>
-    <t>11.5000</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاور جل مود </t>
-  </si>
-  <si>
-    <t>فلامنجو شفرات للنساء</t>
-  </si>
-  <si>
-    <t>فيانسيه كريم بخاخ</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>27:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>ليفه</t>
   </si>
   <si>
@@ -998,6 +1016,9 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
@@ -1007,7 +1028,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:14 PM</t>
+    <t>Monday, 15 September, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1780,7 +1801,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1790,11 +1811,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>28</v>
@@ -1806,14 +1827,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1830,7 +1851,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1863,7 +1884,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1879,7 +1900,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1889,11 +1910,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1905,14 +1926,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1922,14 +1943,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1938,14 +1959,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1955,11 +1976,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>28</v>
@@ -1971,14 +1992,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1988,14 +2009,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2004,14 +2025,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2021,14 +2042,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>50</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2044,7 +2065,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2054,14 +2075,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2070,31 +2091,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2103,14 +2124,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2120,14 +2141,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2136,31 +2157,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2169,14 +2190,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2186,14 +2207,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2209,7 +2230,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2226,7 +2247,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2242,7 +2263,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2259,7 +2280,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2275,7 +2296,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2285,14 +2306,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2301,14 +2322,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2318,11 +2339,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2334,14 +2355,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2351,14 +2372,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2367,14 +2388,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2384,11 +2405,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2400,14 +2421,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2417,11 +2438,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2433,14 +2454,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2450,14 +2471,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2466,14 +2487,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2483,14 +2504,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2499,14 +2520,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2516,11 +2537,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>28</v>
@@ -2532,31 +2553,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2565,14 +2586,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2582,14 +2603,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2598,28 +2619,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2631,14 +2652,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2648,14 +2669,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2671,7 +2692,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2681,11 +2702,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2697,14 +2718,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2714,14 +2735,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2730,14 +2751,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2747,11 +2768,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2763,31 +2784,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2796,14 +2817,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2813,11 +2834,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2829,31 +2850,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2869,7 +2890,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2879,11 +2900,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2895,14 +2916,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2912,14 +2933,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2928,14 +2949,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2961,14 +2982,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2978,11 +2999,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2994,14 +3015,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3011,11 +3032,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>28</v>
@@ -3027,14 +3048,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3044,11 +3065,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3060,14 +3081,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3077,14 +3098,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3093,14 +3114,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3110,14 +3131,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3126,14 +3147,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3143,14 +3164,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3159,14 +3180,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3176,14 +3197,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3192,31 +3213,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3225,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3242,14 +3263,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3258,28 +3279,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3291,14 +3312,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3331,7 +3352,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3341,14 +3362,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3357,14 +3378,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3374,11 +3395,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3390,14 +3411,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3407,14 +3428,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3423,7 +3444,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3440,11 +3461,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3456,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3473,11 +3494,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3489,28 +3510,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3522,14 +3543,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3539,11 +3560,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3555,28 +3576,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3588,7 +3609,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3605,11 +3626,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3628,7 +3649,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3645,7 +3666,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3661,24 +3682,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3694,7 +3715,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3711,7 +3732,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3727,24 +3748,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3753,14 +3774,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3770,11 +3791,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3786,14 +3807,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3803,11 +3824,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3819,28 +3840,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3852,14 +3873,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3869,14 +3890,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3885,31 +3906,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3918,14 +3939,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3935,14 +3956,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3951,28 +3972,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -3984,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4001,11 +4022,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4017,14 +4038,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4034,14 +4055,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4050,28 +4071,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4083,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4100,14 +4121,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4116,14 +4137,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4133,11 +4154,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4149,31 +4170,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4182,14 +4203,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4199,14 +4220,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4215,14 +4236,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4232,14 +4253,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4248,14 +4269,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4265,14 +4286,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4288,7 +4309,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,14 +4319,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4314,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4331,14 +4352,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4387,7 +4408,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4397,11 +4418,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4413,14 +4434,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4430,11 +4451,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4453,7 +4474,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4463,14 +4484,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4479,14 +4500,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4496,11 +4517,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4512,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4529,11 +4550,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4545,14 +4566,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4562,11 +4583,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>110</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4578,14 +4599,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,14 +4616,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4611,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4628,14 +4649,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4644,14 +4665,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,14 +4682,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4677,14 +4698,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4694,14 +4715,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4717,7 +4738,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,14 +4748,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4743,14 +4764,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4760,14 +4781,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4776,14 +4797,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4793,11 +4814,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4809,28 +4830,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4849,24 +4870,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4882,21 +4903,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4915,21 +4936,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4941,31 +4962,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4974,31 +4995,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5007,31 +5028,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5040,7 +5061,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5053,18 +5074,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>312</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5073,31 +5094,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>315</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5106,28 +5127,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5139,31 +5160,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5172,31 +5193,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5205,28 +5226,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>132</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5238,28 +5259,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>298</v>
+        <v>178</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5278,21 +5299,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5311,21 +5332,21 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5344,24 +5365,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5370,20 +5391,20 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5391,10 +5412,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5403,31 +5424,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5436,31 +5457,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>309</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5469,66 +5490,165 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>331</v>
+        <v>14</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>334</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>335</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>69</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>42</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>336</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>16</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>69</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>313</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>337</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>65</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>69</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>338</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q126" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7710.6949999999997</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>332</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>333</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>334</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>8003.4350000000004</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>339</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>340</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>341</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6122,10 +6242,25 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>ANOXICAM 20MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -443,12 +452,6 @@
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -626,6 +629,9 @@
     <t>LIT UP SOAP 100 GM</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -800,6 +806,18 @@
     <t>TRILLERG EYE DROPS 10 ML</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -959,10 +977,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>29:0</t>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>38:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1028,7 +1046,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:24 PM</t>
+    <t>Monday, 15 September, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1867,7 +1885,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1877,14 +1895,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1893,14 +1911,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1910,14 +1928,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1926,14 +1944,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1966,7 +1984,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1983,7 +2001,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1999,7 +2017,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2009,7 +2027,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -2042,14 +2060,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2058,14 +2076,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2075,14 +2093,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2091,14 +2109,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2112,10 +2130,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2124,14 +2142,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2141,14 +2159,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2157,28 +2175,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2190,20 +2208,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2214,7 +2232,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2223,7 +2241,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2240,14 +2258,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2263,7 +2281,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2296,7 +2314,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2313,7 +2331,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2329,7 +2347,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2362,7 +2380,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2379,7 +2397,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2405,14 +2423,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2421,14 +2439,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2438,11 +2456,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2454,14 +2472,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2494,7 +2512,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2504,11 +2522,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2520,14 +2538,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2537,14 +2555,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2560,7 +2578,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2593,7 +2611,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2603,11 +2621,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>28</v>
@@ -2619,20 +2637,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2643,7 +2661,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2659,13 +2677,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2676,7 +2694,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2709,7 +2727,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2725,7 +2743,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2824,7 +2842,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2857,13 +2875,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2874,7 +2892,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2890,13 +2908,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2904,10 +2922,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2933,14 +2951,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2966,14 +2984,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2989,7 +3007,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2999,7 +3017,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -3022,7 +3040,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3032,14 +3050,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3048,14 +3066,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3065,14 +3083,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3081,7 +3099,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3098,14 +3116,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3114,14 +3132,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3131,14 +3149,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3147,14 +3165,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3164,11 +3182,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3213,14 +3231,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3230,14 +3248,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3279,31 +3297,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3312,28 +3330,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3345,14 +3363,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3362,11 +3380,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3385,7 +3403,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3395,11 +3413,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3411,14 +3429,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3428,14 +3446,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3444,7 +3462,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3461,14 +3479,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3477,14 +3495,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3494,11 +3512,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3510,14 +3528,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3527,11 +3545,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3543,14 +3561,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3560,11 +3578,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3576,28 +3594,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3609,28 +3627,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3642,7 +3660,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3659,11 +3677,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3675,7 +3693,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3692,11 +3710,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3715,7 +3733,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3725,14 +3743,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3741,31 +3759,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3774,14 +3792,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3791,14 +3809,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3807,31 +3825,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3857,11 +3875,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3873,14 +3891,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3890,11 +3908,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3906,28 +3924,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3939,14 +3957,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3956,14 +3974,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3972,31 +3990,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4005,14 +4023,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4022,14 +4040,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4038,28 +4056,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -4071,14 +4089,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,11 +4106,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4104,14 +4122,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4121,14 +4139,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4137,14 +4155,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4154,11 +4172,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4170,31 +4188,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4203,14 +4221,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4220,14 +4238,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4236,28 +4254,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4269,14 +4287,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,14 +4304,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4309,7 +4327,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4323,10 +4341,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4335,14 +4353,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4352,14 +4370,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4368,7 +4386,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4385,14 +4403,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4401,14 +4419,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4418,14 +4436,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4434,14 +4452,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4451,11 +4469,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4467,14 +4485,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,11 +4502,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4500,14 +4518,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4517,11 +4535,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4533,14 +4551,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,11 +4568,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4566,14 +4584,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4583,14 +4601,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4606,7 +4624,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,11 +4634,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4632,14 +4650,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,11 +4667,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4665,14 +4683,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4682,11 +4700,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>28</v>
@@ -4698,14 +4716,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4715,14 +4733,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4731,14 +4749,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4748,14 +4766,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4764,14 +4782,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4781,14 +4799,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>169</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4797,14 +4815,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4814,14 +4832,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4830,14 +4848,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,14 +4865,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4870,7 +4888,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,14 +4898,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4896,14 +4914,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,11 +4931,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4929,28 +4947,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4969,24 +4987,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5002,21 +5020,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5035,24 +5053,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>87</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5068,24 +5086,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5094,31 +5112,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5127,31 +5145,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,7 +5178,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5173,18 +5191,18 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5193,31 +5211,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>319</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5226,28 +5244,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5259,31 +5277,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5299,24 +5317,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5325,28 +5343,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>32</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5358,28 +5376,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>304</v>
+        <v>179</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5391,31 +5409,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5431,21 +5449,21 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5464,24 +5482,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>87</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5490,20 +5508,20 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
@@ -5511,10 +5529,10 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5523,31 +5541,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5556,31 +5574,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>314</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5589,66 +5607,165 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>14</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>340</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>341</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>72</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>45</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>342</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>16</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>72</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>319</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>343</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>68</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>72</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>344</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q129" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>8003.4350000000004</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>339</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>340</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>341</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>8203.4349999999995</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>345</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>346</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>347</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6257,10 +6374,25 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -960,6 +960,18 @@
   </si>
   <si>
     <t>11.5000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
   </si>
   <si>
     <t>رول اون ريكسونا25</t>
@@ -5284,7 +5296,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5294,14 +5306,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>323</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5310,7 +5322,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5327,14 +5339,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5343,7 +5355,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5360,14 +5372,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>329</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5376,14 +5388,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5393,11 +5405,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>179</v>
+        <v>331</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5409,14 +5421,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5426,11 +5438,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5442,14 +5454,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5459,11 +5471,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5475,14 +5487,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5492,11 +5504,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5508,14 +5520,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,14 +5537,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5541,14 +5553,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,14 +5570,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5574,14 +5586,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5595,10 +5607,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>90</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5607,14 +5619,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5624,14 +5636,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5640,14 +5652,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5657,14 +5669,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5673,14 +5685,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>345</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5690,14 +5702,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>320</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5706,14 +5718,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5723,49 +5735,82 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>347</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>68</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>72</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>348</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>204</v>
       </c>
-      <c t="s" r="Q129" s="12">
+      <c t="s" r="Q130" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>8203.4349999999995</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>345</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>346</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>347</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>8213.4349999999995</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>349</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>350</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>351</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6389,10 +6434,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -1058,7 +1058,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:29 PM</t>
+    <t>Monday, 15 September, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -926,6 +926,12 @@
     <t>195.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -1058,7 +1064,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:39 PM</t>
+    <t>Monday, 15 September, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5108,14 +5114,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5131,7 +5137,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>170</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5141,14 +5147,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5157,14 +5163,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,14 +5180,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5211,7 +5217,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5223,14 +5229,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5240,14 +5246,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,14 +5262,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5273,14 +5279,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>233</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5289,14 +5295,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5306,11 +5312,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5322,14 +5328,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5339,14 +5345,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>327</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5355,7 +5361,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5372,11 +5378,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>329</v>
@@ -5405,14 +5411,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5421,14 +5427,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5438,11 +5444,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>179</v>
+        <v>333</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5454,14 +5460,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,11 +5477,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5487,14 +5493,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5504,11 +5510,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5520,14 +5526,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>337</v>
+        <v>20</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,11 +5543,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>338</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5553,14 +5559,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,14 +5576,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
         <v>340</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5593,7 +5599,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5603,14 +5609,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5619,14 +5625,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,14 +5642,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5652,14 +5658,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,14 +5675,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5685,14 +5691,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5702,14 +5708,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5725,7 +5731,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>347</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5735,14 +5741,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>324</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5751,14 +5757,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5768,49 +5774,82 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>349</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>68</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>72</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>350</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
         <v>204</v>
       </c>
-      <c t="s" r="Q130" s="12">
+      <c t="s" r="Q131" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>8213.4349999999995</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>349</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>350</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>8243.4349999999995</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
         <v>351</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>352</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>353</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6439,10 +6478,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -302,6 +302,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -383,6 +392,15 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -431,9 +449,6 @@
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
     <t>DOLCYL 2MG 30 TAB.</t>
   </si>
   <si>
@@ -764,9 +779,6 @@
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
-    <t>11.0000</t>
-  </si>
-  <si>
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
@@ -992,13 +1004,22 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>زيت دابر املا 270 مل</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>38:0</t>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>39:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1064,7 +1085,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:43 PM</t>
+    <t>Monday, 15 September, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2497,7 +2518,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2507,14 +2528,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2523,14 +2544,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2563,7 +2584,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2573,11 +2594,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2589,14 +2610,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2606,14 +2627,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2662,7 +2683,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2672,11 +2693,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>28</v>
@@ -2688,20 +2709,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2712,7 +2733,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2728,13 +2749,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2745,7 +2766,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2778,7 +2799,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2794,7 +2815,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2804,14 +2825,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2820,14 +2841,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2844,7 +2865,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2860,7 +2881,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2870,14 +2891,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2886,14 +2907,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2932,7 +2953,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2943,7 +2964,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2959,7 +2980,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2973,7 +2994,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2985,31 +3006,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3018,14 +3039,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3035,11 +3056,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3058,7 +3079,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3068,14 +3089,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3084,14 +3105,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3101,14 +3122,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3117,14 +3138,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3134,11 +3155,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3150,14 +3171,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3167,7 +3188,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3190,7 +3211,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3223,7 +3244,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3233,14 +3254,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3249,14 +3270,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3266,14 +3287,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3282,14 +3303,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3299,14 +3320,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3322,7 +3343,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3332,14 +3353,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3355,24 +3376,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3381,14 +3402,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3398,14 +3419,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3414,28 +3435,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3454,7 +3475,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3464,11 +3485,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3497,14 +3518,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3513,14 +3534,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3530,11 +3551,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3546,14 +3567,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3563,14 +3584,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3579,7 +3600,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3596,11 +3617,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3612,14 +3633,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3629,11 +3650,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3645,28 +3666,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3678,14 +3699,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3718,21 +3739,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3744,7 +3765,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3761,11 +3782,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3777,14 +3798,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3794,14 +3815,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3810,14 +3831,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3827,14 +3848,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3843,31 +3864,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3876,14 +3897,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3893,14 +3914,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3909,31 +3930,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3942,14 +3963,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3959,11 +3980,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3975,14 +3996,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3992,11 +4013,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4008,24 +4029,24 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4048,7 +4069,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4062,10 +4083,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4074,14 +4095,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4091,14 +4112,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4107,14 +4128,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4124,14 +4145,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4140,28 +4161,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>28</v>
@@ -4173,14 +4194,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4190,11 +4211,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4206,14 +4227,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4223,14 +4244,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4239,14 +4260,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4256,11 +4277,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4272,31 +4293,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4305,14 +4326,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4322,14 +4343,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4338,28 +4359,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4371,14 +4392,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4388,14 +4409,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4404,14 +4425,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4421,14 +4442,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4437,14 +4458,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4454,14 +4475,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4487,14 +4508,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4503,14 +4524,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4520,14 +4541,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4536,14 +4557,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4553,11 +4574,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4576,7 +4597,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4586,11 +4607,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4602,14 +4623,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4619,11 +4640,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4635,14 +4656,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4652,11 +4673,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4668,7 +4689,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4685,11 +4706,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4708,7 +4729,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4718,14 +4739,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>70</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4741,7 +4762,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4751,11 +4772,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4767,14 +4788,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4784,14 +4805,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4800,14 +4821,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4817,14 +4838,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4833,14 +4854,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4850,14 +4871,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4866,14 +4887,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4883,7 +4904,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4906,7 +4927,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4916,14 +4937,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>170</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4932,14 +4953,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4949,14 +4970,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4965,14 +4986,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4982,14 +5003,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4998,14 +5019,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5015,11 +5036,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5031,14 +5052,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5048,11 +5069,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5064,24 +5085,24 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>122</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -5104,21 +5125,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5130,14 +5151,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>175</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5147,14 +5168,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5170,7 +5191,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5184,7 +5205,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5196,14 +5217,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5213,14 +5234,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5236,7 +5257,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5246,14 +5267,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>62</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5262,14 +5283,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5279,14 +5300,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5295,14 +5316,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5312,14 +5333,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5328,14 +5349,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5345,14 +5366,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>325</v>
+        <v>238</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5361,14 +5382,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5378,14 +5399,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>329</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5394,14 +5415,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5411,14 +5432,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>241</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>331</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5427,14 +5448,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5444,11 +5465,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5460,14 +5481,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5477,14 +5498,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5493,14 +5514,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5510,14 +5531,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5526,14 +5547,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5543,11 +5564,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>32</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5559,14 +5580,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>339</v>
+        <v>44</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5576,11 +5597,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>340</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5592,14 +5613,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5609,14 +5630,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5625,14 +5646,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5642,11 +5663,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5658,14 +5679,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>22</v>
+        <v>346</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5675,14 +5696,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5691,14 +5712,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5712,10 +5733,10 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5724,14 +5745,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5741,14 +5762,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>66</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5757,14 +5778,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5774,14 +5795,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5790,14 +5811,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5807,49 +5828,148 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>353</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>354</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>72</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>45</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>355</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>16</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>72</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>329</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>356</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>68</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>72</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>357</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q134" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>8243.4349999999995</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>351</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>352</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
-        <v>353</v>
-      </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>8387.2250000000004</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>358</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>359</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>360</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6483,10 +6603,25 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -1085,7 +1085,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 9:58 PM</t>
+    <t>Monday, 15 September, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -644,6 +644,12 @@
     <t>LIT UP SOAP 100 GM</t>
   </si>
   <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -923,9 +929,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -1085,7 +1088,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 10:19 PM</t>
+    <t>Monday, 15 September, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3871,7 +3874,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3881,14 +3884,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3914,14 +3917,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3930,28 +3933,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3963,31 +3966,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3996,14 +3999,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4013,11 +4016,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4046,11 +4049,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4062,14 +4065,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4079,11 +4082,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4095,7 +4098,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4108,11 +4111,11 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4135,24 +4138,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4168,24 +4171,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4194,31 +4197,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4227,14 +4230,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4244,14 +4247,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4277,14 +4280,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4293,14 +4296,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4310,14 +4313,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4326,14 +4329,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4343,14 +4346,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4359,7 +4362,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4372,15 +4375,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4392,31 +4395,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4425,14 +4428,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4442,14 +4445,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4458,14 +4461,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4475,14 +4478,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4491,14 +4494,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4508,11 +4511,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4531,7 +4534,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4541,14 +4544,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4564,7 +4567,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4574,14 +4577,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4590,14 +4593,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4607,11 +4610,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4623,14 +4626,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4640,11 +4643,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4656,14 +4659,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4673,11 +4676,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4689,14 +4692,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4706,11 +4709,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4722,7 +4725,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4739,7 +4742,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4772,11 +4775,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>116</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4795,7 +4798,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4805,14 +4808,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4838,14 +4841,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>116</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4854,14 +4857,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4871,11 +4874,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4887,14 +4890,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4904,14 +4907,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4920,14 +4923,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4937,7 +4940,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4960,7 +4963,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4970,7 +4973,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4993,7 +4996,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5003,14 +5006,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>175</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5019,14 +5022,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5036,14 +5039,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>62</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5052,14 +5055,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5069,11 +5072,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5085,14 +5088,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5102,11 +5105,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5125,7 +5128,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5135,11 +5138,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5158,21 +5161,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>180</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5184,14 +5187,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5201,11 +5204,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>62</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5217,14 +5220,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5234,14 +5237,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5250,14 +5253,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>175</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5267,14 +5270,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5290,7 +5293,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5300,14 +5303,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>62</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5316,14 +5319,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5333,11 +5336,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5349,14 +5352,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5366,14 +5369,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5382,14 +5385,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5399,14 +5402,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5415,14 +5418,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5432,11 +5435,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5448,14 +5451,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5465,11 +5468,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5481,14 +5484,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5498,14 +5501,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>336</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5514,7 +5517,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5531,14 +5534,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5547,7 +5550,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5564,14 +5567,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>341</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5580,14 +5583,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5597,11 +5600,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>184</v>
+        <v>341</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5620,7 +5623,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5630,11 +5633,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5653,7 +5656,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5663,11 +5666,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5686,7 +5689,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5696,11 +5699,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>316</v>
+        <v>128</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>347</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5712,14 +5715,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>22</v>
+        <v>347</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5729,14 +5732,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5745,14 +5748,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5762,14 +5765,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5785,7 +5788,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5795,14 +5798,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>90</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5818,7 +5821,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5828,14 +5831,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5851,7 +5854,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5861,14 +5864,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5877,14 +5880,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5894,14 +5897,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>330</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5917,7 +5920,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5927,49 +5930,82 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>357</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>68</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>72</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>358</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>209</v>
       </c>
-      <c t="s" r="Q134" s="12">
+      <c t="s" r="Q135" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>8387.2250000000004</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>358</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>8507.2250000000004</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
         <v>359</v>
       </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
         <v>360</v>
       </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>361</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6618,10 +6654,15 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -1088,7 +1088,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 10:25 PM</t>
+    <t>Monday, 15 September, 2025 10:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -851,6 +851,9 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
     <t>VENTOCOUGH WITHOUT SUGAR SYRUP 125ML</t>
   </si>
   <si>
@@ -1070,6 +1073,9 @@
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
+    <t>مبرد اظافر حديد</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -1088,7 +1094,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 10:29 PM</t>
+    <t>Monday, 15 September, 2025 10:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4798,7 +4804,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4808,11 +4814,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4824,14 +4830,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4841,14 +4847,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4857,14 +4863,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4874,14 +4880,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4890,14 +4896,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4907,11 +4913,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4923,14 +4929,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4940,14 +4946,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4956,14 +4962,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4973,11 +4979,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>28</v>
@@ -4989,14 +4995,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5006,11 +5012,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>28</v>
@@ -5022,14 +5028,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5039,14 +5045,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>175</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5055,14 +5061,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5072,14 +5078,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>62</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>232</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5095,7 +5101,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5105,11 +5111,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5128,7 +5134,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5138,11 +5144,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5161,7 +5167,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5171,11 +5177,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5194,21 +5200,21 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5220,14 +5226,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5237,11 +5243,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5253,14 +5259,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5270,14 +5276,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5286,14 +5292,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5303,14 +5309,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5326,7 +5332,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>175</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5336,14 +5342,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>62</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5352,14 +5358,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5369,11 +5375,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5385,14 +5391,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5402,14 +5408,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5418,14 +5424,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5435,14 +5441,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5451,14 +5457,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5468,11 +5474,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5484,14 +5490,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5501,11 +5507,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5517,14 +5523,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5534,14 +5540,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>337</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5550,7 +5556,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5567,14 +5573,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>248</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5583,7 +5589,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5600,14 +5606,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5616,14 +5622,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5633,11 +5639,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>184</v>
+        <v>342</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>185</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5656,7 +5662,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5666,11 +5672,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5689,7 +5695,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5699,11 +5705,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5722,7 +5728,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5732,11 +5738,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>317</v>
+        <v>128</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>348</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5748,14 +5754,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>22</v>
+        <v>348</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5765,14 +5771,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5781,14 +5787,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5798,14 +5804,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5821,7 +5827,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5831,14 +5837,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>90</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5854,7 +5860,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5864,14 +5870,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5887,7 +5893,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5897,14 +5903,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5913,14 +5919,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5930,11 +5936,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5946,14 +5952,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>68</v>
+        <v>357</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5963,49 +5969,115 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>358</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>16</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>72</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>331</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>359</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>68</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>72</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>360</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
         <v>209</v>
       </c>
-      <c t="s" r="Q135" s="12">
+      <c t="s" r="Q137" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>8507.2250000000004</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>359</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>360</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>8567.2250000000004</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
         <v>361</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>362</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>363</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6659,10 +6731,20 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -131,213 +131,213 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>102.9600</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ANTOPRAL 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>ARYTHREX 200MG 20 CAP</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>46.7400</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BG SKIN TONERAC NET</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 500MG 12 TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>34.5000</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>-19.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>90.4800</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ANTOPRAL 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>ARYTHREX 200MG 20 CAP</t>
-  </si>
-  <si>
-    <t>94.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>46.7400</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BG SKIN TONERAC NET</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>229.0000</t>
-  </si>
-  <si>
-    <t>CAPOZIDE 50/25MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 500MG 12 TABS.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>34.5000</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>COLCHICINE 500MCG 100 TAB</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>-19.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -1022,10 +1022,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>39:0</t>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>40:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1094,7 +1094,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 10:47 PM</t>
+    <t>Monday, 15 September, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1966,7 +1966,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1976,14 +1976,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1992,14 +1992,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2075,11 +2075,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>28</v>
@@ -2091,14 +2091,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>28</v>
@@ -2124,14 +2124,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2141,14 +2141,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -2190,14 +2190,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2207,14 +2207,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2223,14 +2223,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2240,11 +2240,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2269,15 +2269,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2306,14 +2306,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2339,11 +2339,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>28</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2372,11 +2372,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>28</v>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2405,11 +2405,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2438,11 +2438,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2471,14 +2471,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2504,11 +2504,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2537,11 +2537,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -2553,14 +2553,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2603,11 +2603,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2636,11 +2636,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2652,14 +2652,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2692,7 +2692,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2764,7 +2764,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2808,7 +2808,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2890,7 +2890,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2907,7 +2907,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3028,7 +3028,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -3039,7 +3039,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3055,7 +3055,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3088,7 +3088,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3286,7 +3286,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3385,7 +3385,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3402,7 +3402,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3435,7 +3435,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3457,7 +3457,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3527,11 +3527,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3754,11 +3754,11 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3913,7 +3913,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3930,7 +3930,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3946,7 +3946,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3985,11 +3985,11 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -4045,7 +4045,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4150,11 +4150,11 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4177,7 +4177,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4194,7 +4194,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4216,7 +4216,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4359,7 +4359,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4414,7 +4414,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4458,7 +4458,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4517,11 +4517,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4573,7 +4573,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4590,7 +4590,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4682,11 +4682,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>28</v>
@@ -5035,7 +5035,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -5167,7 +5167,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5239,7 +5239,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5272,11 +5272,11 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5305,7 +5305,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5316,7 +5316,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5338,11 +5338,11 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
@@ -5371,7 +5371,7 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5404,7 +5404,7 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5437,7 +5437,7 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
@@ -5470,7 +5470,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5503,7 +5503,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5536,7 +5536,7 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
@@ -5569,7 +5569,7 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
@@ -5602,7 +5602,7 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
@@ -5635,7 +5635,7 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
@@ -5662,13 +5662,13 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
@@ -5701,15 +5701,15 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5734,7 +5734,7 @@
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
@@ -5767,7 +5767,7 @@
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
@@ -5800,7 +5800,7 @@
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
@@ -5833,7 +5833,7 @@
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
@@ -5866,7 +5866,7 @@
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
@@ -5893,17 +5893,17 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
@@ -5926,13 +5926,13 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
@@ -5965,18 +5965,18 @@
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5998,7 +5998,7 @@
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
@@ -6025,13 +6025,13 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
@@ -6047,7 +6047,7 @@
     </row>
     <row r="138" ht="24.75" customHeight="1">
       <c r="P138" s="13">
-        <v>8567.2250000000004</v>
+        <v>8581.7049999999999</v>
       </c>
       <c r="Q138" s="13"/>
     </row>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -125,348 +125,360 @@
     <t>34.00</t>
   </si>
   <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>102.9600</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ANTOPRAL 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>ARYTHREX 200MG 20 CAP</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>46.7400</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BG SKIN TONERAC NET</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 500MG 12 TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>34.5000</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>-19.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>CYMBATEX 20 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DANTRELAX COMPOUND 30 CAPS.</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEMOLIA FEMININE GEL</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>71.6400</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>DIARENT HAIR SERUM 200 ML</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>-44.5500</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
     <t>34.0000</t>
   </si>
   <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>102.9600</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ANTOPRAL 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>ARYTHREX 200MG 20 CAP</t>
-  </si>
-  <si>
-    <t>94.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>46.7400</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>BACLOFEN 10 MG 20 TABS. B.P.2011</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BG SKIN TONERAC NET</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>229.0000</t>
-  </si>
-  <si>
-    <t>CAPOZIDE 50/25MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 500MG 12 TABS.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>34.5000</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>COLCHICINE 500MCG 100 TAB</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>-19.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DANTRELAX COMPOUND 30 CAPS.</t>
-  </si>
-  <si>
-    <t>153.00</t>
-  </si>
-  <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEMOLIA FEMININE GEL</t>
-  </si>
-  <si>
-    <t>115.00</t>
-  </si>
-  <si>
-    <t>115.0000</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>71.6400</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>DIARENT HAIR SERUM 200 ML</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>-44.5500</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:2</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -518,6 +530,12 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
@@ -545,6 +563,15 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -836,6 +863,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -1094,7 +1130,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:03 PM</t>
+    <t>Monday, 15 September, 2025 11:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1933,7 +1969,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1950,7 +1986,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -2659,7 +2695,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2669,11 +2705,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>28</v>
@@ -2685,14 +2721,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2725,7 +2761,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2735,11 +2771,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>28</v>
@@ -2751,20 +2787,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2775,7 +2811,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2791,13 +2827,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2808,7 +2844,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2841,7 +2877,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2874,7 +2910,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2890,7 +2926,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2900,14 +2936,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2916,14 +2952,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2933,14 +2969,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2949,14 +2985,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2989,7 +3025,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3022,13 +3058,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -3039,7 +3075,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3055,24 +3091,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3081,14 +3117,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3098,14 +3134,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3114,14 +3150,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3138,7 +3174,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3154,7 +3190,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3164,11 +3200,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3180,14 +3216,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3197,14 +3233,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3213,14 +3249,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3230,14 +3266,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3246,7 +3282,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3263,14 +3299,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3279,14 +3315,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3296,14 +3332,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3312,14 +3348,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3329,11 +3365,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3345,14 +3381,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3362,14 +3398,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3378,14 +3414,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3395,14 +3431,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3411,14 +3447,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3428,14 +3464,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3444,31 +3480,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3477,14 +3513,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3494,14 +3530,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3510,28 +3546,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3543,31 +3579,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3576,14 +3612,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3593,14 +3629,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3609,14 +3645,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3626,11 +3662,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3699,7 +3735,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3715,7 +3751,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3725,11 +3761,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3741,24 +3777,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3781,7 +3817,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3814,7 +3850,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3824,11 +3860,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3840,28 +3876,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3873,14 +3909,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3890,11 +3926,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3906,14 +3942,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3923,14 +3959,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3939,14 +3975,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3956,14 +3992,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3972,31 +4008,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4005,14 +4041,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4022,14 +4058,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4038,14 +4074,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4055,14 +4091,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4071,31 +4107,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4104,7 +4140,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4121,11 +4157,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4137,24 +4173,24 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4177,7 +4213,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4187,14 +4223,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4203,31 +4239,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4236,7 +4272,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4249,11 +4285,11 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4276,7 +4312,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4286,14 +4322,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4302,31 +4338,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4335,14 +4371,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4352,14 +4388,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4368,14 +4404,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4385,14 +4421,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4401,28 +4437,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4434,14 +4470,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4451,11 +4487,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>129</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>77</v>
@@ -4467,14 +4503,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4484,14 +4520,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4500,31 +4536,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4533,14 +4569,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4550,14 +4586,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4566,14 +4602,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4583,14 +4619,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4599,14 +4635,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4616,14 +4652,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4632,14 +4668,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4649,14 +4685,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4665,14 +4701,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4682,14 +4718,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4698,14 +4734,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4715,11 +4751,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4731,14 +4767,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4748,11 +4784,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4764,14 +4800,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4781,11 +4817,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4804,7 +4840,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4814,11 +4850,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4830,14 +4866,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4847,11 +4883,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4863,14 +4899,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4880,14 +4916,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>69</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4896,14 +4932,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4913,11 +4949,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>119</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4929,14 +4965,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4946,11 +4982,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>61</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4962,14 +4998,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4983,10 +5019,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4995,14 +5031,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5012,11 +5048,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>28</v>
@@ -5028,14 +5064,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5045,14 +5081,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5061,14 +5097,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5085,7 +5121,7 @@
         <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5101,7 +5137,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5111,14 +5147,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>61</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5127,14 +5163,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5144,14 +5180,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5160,14 +5196,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5177,14 +5213,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5193,14 +5229,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5210,14 +5246,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>181</v>
-      </c>
-      <c t="s" r="Q112" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5226,28 +5262,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>61</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5259,28 +5295,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5292,31 +5328,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>43</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5325,28 +5361,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5358,14 +5394,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>181</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5375,14 +5411,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>89</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5391,14 +5427,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5408,14 +5444,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5424,14 +5460,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5441,14 +5477,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5457,14 +5493,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>181</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5474,11 +5510,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>61</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5490,14 +5526,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5507,14 +5543,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>332</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5523,14 +5559,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5540,14 +5576,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5556,14 +5592,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5573,14 +5609,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>338</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5589,14 +5625,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5606,14 +5642,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>248</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>340</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5629,7 +5665,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5639,11 +5675,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5655,14 +5691,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5672,11 +5708,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>184</v>
+        <v>346</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>185</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5688,14 +5724,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5705,14 +5741,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>89</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5721,14 +5757,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5738,14 +5774,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5754,14 +5790,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5771,11 +5807,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5787,14 +5823,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5804,14 +5840,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>351</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5820,14 +5856,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5837,11 +5873,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>318</v>
+        <v>88</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>349</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5853,14 +5889,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5870,14 +5906,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5886,14 +5922,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5903,11 +5939,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>61</v>
+        <v>330</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>232</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5919,14 +5955,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5940,10 +5976,10 @@
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>15</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5952,14 +5988,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>357</v>
+        <v>259</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5969,14 +6005,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>65</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5985,14 +6021,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6002,14 +6038,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>332</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6018,14 +6054,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6035,49 +6071,181 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>360</v>
+        <v>61</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>367</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>43</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>71</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>14</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>368</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>369</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>71</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>44</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>370</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>16</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>71</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>343</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>371</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>67</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>71</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>372</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q141" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>8581.7049999999999</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>361</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
-        <v>362</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
-        <v>363</v>
-      </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>8832.3099999999995</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>373</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>374</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>375</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6741,10 +6909,30 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -1130,7 +1130,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:04 PM</t>
+    <t>Monday, 15 September, 2025 11:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -413,7 +413,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>71.6400</t>
+    <t>83.5200</t>
+  </si>
+  <si>
+    <t>2:1</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -746,9 +749,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -1067,7 +1067,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -1130,7 +1130,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:10 PM</t>
+    <t>Monday, 15 September, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2959,7 +2959,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2976,7 +2976,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>56</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2985,14 +2985,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3002,11 +3002,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3035,11 +3035,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3068,11 +3068,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>93</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>28</v>
@@ -3183,14 +3183,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3249,14 +3249,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3299,11 +3299,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>28</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3365,11 +3365,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3398,11 +3398,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3414,14 +3414,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3464,11 +3464,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>67</v>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3530,11 +3530,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>43</v>
@@ -3546,14 +3546,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3563,11 +3563,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3596,11 +3596,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3612,14 +3612,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3629,11 +3629,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3645,14 +3645,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3695,11 +3695,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3728,11 +3728,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3761,11 +3761,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3794,11 +3794,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3827,11 +3827,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3843,14 +3843,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3860,11 +3860,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3876,14 +3876,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3926,11 +3926,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3959,11 +3959,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3992,11 +3992,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4058,11 +4058,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>67</v>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4091,11 +4091,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4157,11 +4157,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4206,14 +4206,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4223,11 +4223,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4256,11 +4256,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4338,14 +4338,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4553,11 +4553,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4642,7 +4642,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4873,7 +4873,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5170,7 +5170,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5253,7 +5253,7 @@
         <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5378,11 +5378,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5401,7 +5401,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5500,7 +5500,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>352</v>
@@ -5840,11 +5840,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5863,7 +5863,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5979,7 +5979,7 @@
         <v>363</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>20</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="142" ht="25.5" customHeight="1">
       <c r="P142" s="13">
-        <v>8832.3099999999995</v>
+        <v>8847.1900000000005</v>
       </c>
       <c r="Q142" s="13"/>
     </row>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -1130,7 +1130,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:11 PM</t>
+    <t>Monday, 15 September, 2025 11:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -965,6 +965,15 @@
     <t>ZISROCIN 100MG/5ML SUSP. 30ML</t>
   </si>
   <si>
+    <t>ZITHROKAN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -1130,7 +1139,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:42 PM</t>
+    <t>Monday, 15 September, 2025 11:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5335,7 +5344,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5345,11 +5354,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>222</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5361,14 +5370,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5378,11 +5387,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5394,28 +5403,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>190</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5434,7 +5443,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>182</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5444,11 +5453,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>242</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5460,14 +5469,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5477,14 +5486,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5493,14 +5502,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>182</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5510,14 +5519,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5526,14 +5535,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>329</v>
+        <v>182</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5543,14 +5552,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>61</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5566,7 +5575,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5576,11 +5585,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>333</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5599,7 +5608,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>335</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5609,14 +5618,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
         <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5642,14 +5651,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>339</v>
+        <v>249</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5658,14 +5667,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5675,11 +5684,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5691,14 +5700,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>345</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5731,7 +5740,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5741,14 +5750,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>350</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5774,14 +5783,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>154</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5790,7 +5799,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5807,14 +5816,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q129" s="12">
         <v>355</v>
-      </c>
-      <c t="s" r="Q129" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5830,7 +5839,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5840,11 +5849,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>194</v>
+        <v>357</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>195</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5856,14 +5865,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5873,11 +5882,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5889,14 +5898,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5906,11 +5915,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5922,14 +5931,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5939,11 +5948,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>330</v>
+        <v>131</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>361</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5962,7 +5971,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>22</v>
+        <v>363</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5972,14 +5981,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5988,14 +5997,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6005,14 +6014,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6021,14 +6030,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6038,14 +6047,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>89</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6054,14 +6063,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6071,14 +6080,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>61</v>
+        <v>333</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6087,7 +6096,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6104,11 +6113,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6120,14 +6129,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>369</v>
+        <v>43</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6137,14 +6146,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6153,14 +6162,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>16</v>
+        <v>372</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6170,14 +6179,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>344</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6186,14 +6195,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6203,49 +6212,82 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
+        <v>347</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>374</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>67</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>71</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>375</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
         <v>219</v>
       </c>
-      <c t="s" r="Q141" s="12">
+      <c t="s" r="Q142" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>8847.1900000000005</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
-        <v>373</v>
-      </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
-        <v>374</v>
-      </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
-        <v>375</v>
-      </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="P143" s="13">
+        <v>8924.1900000000005</v>
+      </c>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" ht="16.5" customHeight="1">
+      <c t="s" r="A144" s="14">
+        <v>376</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c t="s" r="G144" s="15">
+        <v>377</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c t="s" r="K144" s="17">
+        <v>378</v>
+      </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="692">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6929,10 +6971,15 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="K144:Q144"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -1139,7 +1139,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:47 PM</t>
+    <t>Monday, 15 September, 2025 11:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -683,6 +683,15 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -806,6 +815,9 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">RELAX  CAPS</t>
+  </si>
+  <si>
     <t>SELECTIVE FOLATE B12 TAB</t>
   </si>
   <si>
@@ -830,6 +842,15 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>THIOTACID COMPOUND 300MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>109.50</t>
+  </si>
+  <si>
+    <t>36.1350</t>
+  </si>
+  <si>
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -917,12 +938,6 @@
     <t>VIOTIC EAR DROPS 10 ML</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -1139,7 +1154,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:53 PM</t>
+    <t>Monday, 15 September, 2025 11:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4090,7 +4105,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4107,7 +4122,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4123,21 +4138,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -4149,31 +4164,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4189,7 +4204,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4222,7 +4237,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4232,11 +4247,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4294,15 +4309,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4314,31 +4329,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4347,31 +4362,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4387,13 +4402,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4404,7 +4419,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4420,7 +4435,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4430,14 +4445,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4446,14 +4461,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4470,7 +4485,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4486,7 +4501,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4496,14 +4511,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4512,14 +4527,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4536,7 +4551,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4558,15 +4573,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4578,31 +4593,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4611,31 +4626,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4644,14 +4659,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4661,14 +4676,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4677,7 +4692,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4694,14 +4709,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4710,14 +4725,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4727,14 +4742,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4760,14 +4775,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4793,14 +4808,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4826,14 +4841,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4849,7 +4864,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4859,11 +4874,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4875,14 +4890,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4892,11 +4907,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4908,14 +4923,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4925,11 +4940,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4941,14 +4956,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4958,11 +4973,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4974,14 +4989,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4991,11 +5006,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>61</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -5007,7 +5022,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -5024,11 +5039,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5040,14 +5055,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5061,10 +5076,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>69</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5073,14 +5088,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5090,11 +5105,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>61</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5106,14 +5121,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5123,11 +5138,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5139,14 +5154,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5156,11 +5171,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>28</v>
@@ -5172,14 +5187,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5189,14 +5204,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5205,14 +5220,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5222,14 +5237,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5238,14 +5253,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5255,14 +5270,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>182</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5271,14 +5286,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5288,14 +5303,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5304,14 +5319,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5321,14 +5336,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5337,14 +5352,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5361,7 +5376,7 @@
         <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5377,7 +5392,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5387,11 +5402,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5410,7 +5425,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5420,11 +5435,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5443,13 +5458,13 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5476,21 +5491,21 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>43</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5502,31 +5517,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5535,7 +5550,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5552,11 +5567,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5585,14 +5600,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>61</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5601,14 +5616,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5618,14 +5633,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5634,14 +5649,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>338</v>
+        <v>182</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5651,14 +5666,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>249</v>
+        <v>61</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5667,14 +5682,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5684,14 +5699,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>343</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5700,14 +5715,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>345</v>
+        <v>22</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5717,14 +5732,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5733,14 +5748,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>343</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5750,14 +5765,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>349</v>
+        <v>252</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5766,14 +5781,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>22</v>
+        <v>346</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5783,14 +5798,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>353</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5799,14 +5814,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5816,14 +5831,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>154</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>355</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5832,14 +5847,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5849,11 +5864,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5865,14 +5880,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5882,14 +5897,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>194</v>
+        <v>319</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>195</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5898,14 +5913,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5915,14 +5930,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>88</v>
+        <v>340</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5938,7 +5953,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5948,11 +5963,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>131</v>
+        <v>362</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>32</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5964,14 +5979,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>363</v>
+        <v>43</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5981,11 +5996,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>364</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -6004,7 +6019,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6014,14 +6029,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>366</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6030,14 +6045,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6047,11 +6062,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>364</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6063,14 +6078,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>22</v>
+        <v>368</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6080,14 +6095,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>89</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6096,14 +6111,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6113,14 +6128,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>242</v>
+        <v>371</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6129,14 +6144,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6146,11 +6161,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>15</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6162,14 +6177,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>372</v>
+        <v>22</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6179,14 +6194,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6195,14 +6210,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6212,11 +6227,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6228,14 +6243,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6245,49 +6260,148 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>375</v>
+        <v>14</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>376</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>377</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>71</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>44</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>378</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>16</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>71</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>351</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>352</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>379</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>67</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>71</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>380</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
         <v>219</v>
       </c>
-      <c t="s" r="Q142" s="12">
+      <c t="s" r="Q145" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="143" ht="24.75" customHeight="1">
-      <c r="P143" s="13">
-        <v>8924.1900000000005</v>
-      </c>
-      <c r="Q143" s="13"/>
-    </row>
-    <row r="144" ht="16.5" customHeight="1">
-      <c t="s" r="A144" s="14">
-        <v>376</v>
-      </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c t="s" r="G144" s="15">
-        <v>377</v>
-      </c>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="16"/>
-      <c t="s" r="K144" s="17">
-        <v>378</v>
-      </c>
-      <c r="L144" s="17"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="17"/>
-      <c r="Q144" s="17"/>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="P146" s="13">
+        <v>9004.1149999999998</v>
+      </c>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="14">
+        <v>381</v>
+      </c>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c t="s" r="G147" s="15">
+        <v>382</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c t="s" r="K147" s="17">
+        <v>383</v>
+      </c>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="692">
+  <mergeCells count="707">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6976,10 +7090,25 @@
     <mergeCell ref="H142:K142"/>
     <mergeCell ref="L142:M142"/>
     <mergeCell ref="N142:O142"/>
-    <mergeCell ref="P143:Q143"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="K144:Q144"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="K147:Q147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -794,6 +794,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>PYRIDOVIT 30 CAPS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -908,6 +917,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
@@ -1124,9 +1142,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>150.0000</t>
-  </si>
-  <si>
     <t>ليفه</t>
   </si>
   <si>
@@ -1154,7 +1169,7 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Monday, 15 September, 2025 11:57 PM</t>
+    <t>Monday, 15 September, 2025 11:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4534,7 +4549,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4544,14 +4559,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4560,14 +4575,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4584,7 +4599,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4600,24 +4615,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>98</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4626,14 +4641,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4643,14 +4658,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4659,31 +4674,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4692,14 +4707,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4709,14 +4724,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4725,14 +4740,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4742,14 +4757,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4758,14 +4773,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4775,11 +4790,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4791,14 +4806,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4808,14 +4823,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4824,7 +4839,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4841,14 +4856,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4864,7 +4879,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4881,7 +4896,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4897,7 +4912,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4930,7 +4945,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4940,11 +4955,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4956,14 +4971,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4973,11 +4988,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4989,14 +5004,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5029,7 +5044,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5072,11 +5087,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5088,14 +5103,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5105,11 +5120,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5121,14 +5136,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5138,11 +5153,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5154,14 +5169,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5171,14 +5186,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5187,14 +5202,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5204,11 +5219,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5227,7 +5242,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5237,14 +5252,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>226</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5253,14 +5268,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5270,14 +5285,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5286,14 +5301,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5303,14 +5318,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5326,7 +5341,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5336,11 +5351,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>28</v>
@@ -5352,14 +5367,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5369,14 +5384,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>182</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5392,7 +5407,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5402,14 +5417,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5418,14 +5433,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5435,14 +5450,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5451,14 +5466,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5468,11 +5483,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>61</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5484,14 +5499,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5501,11 +5516,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5517,14 +5532,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5534,11 +5549,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>191</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5550,28 +5565,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>329</v>
+        <v>125</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5583,28 +5598,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5616,14 +5631,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5633,14 +5648,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5649,14 +5664,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5682,14 +5697,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5699,14 +5714,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>338</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5715,14 +5730,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5732,14 +5747,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>340</v>
+        <v>61</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>341</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5765,14 +5780,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>252</v>
+        <v>344</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>344</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5788,7 +5803,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5798,14 +5813,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5814,14 +5829,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5831,14 +5846,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>351</v>
+        <v>252</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5847,14 +5862,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>352</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5864,11 +5879,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5880,14 +5895,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>356</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5897,14 +5912,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>358</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5920,7 +5935,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5930,14 +5945,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>154</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>360</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5946,7 +5961,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5963,14 +5978,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
         <v>363</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5979,14 +5994,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5996,14 +6011,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6012,14 +6027,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6029,11 +6044,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>88</v>
+        <v>368</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>89</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6045,14 +6060,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6062,11 +6077,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6078,14 +6093,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>368</v>
+        <v>182</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6095,11 +6110,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>369</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6111,14 +6126,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6128,14 +6143,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>371</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6144,14 +6159,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>262</v>
+        <v>374</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6161,11 +6176,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6177,7 +6192,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6194,14 +6209,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>338</v>
+        <v>14</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>89</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>20</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6210,14 +6225,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6227,11 +6242,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>61</v>
+        <v>344</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>245</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6243,14 +6258,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6260,14 +6275,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6276,14 +6291,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6293,14 +6308,14 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6309,14 +6324,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6326,11 +6341,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>351</v>
+        <v>14</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>352</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6342,14 +6357,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>67</v>
+        <v>382</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6359,49 +6374,115 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>383</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>16</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>71</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>357</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>358</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>384</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>67</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>71</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>385</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
         <v>219</v>
       </c>
-      <c t="s" r="Q145" s="12">
+      <c t="s" r="Q147" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="146" ht="25.5" customHeight="1">
-      <c r="P146" s="13">
-        <v>9004.1149999999998</v>
-      </c>
-      <c r="Q146" s="13"/>
-    </row>
-    <row r="147" ht="16.5" customHeight="1">
-      <c t="s" r="A147" s="14">
-        <v>381</v>
-      </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c t="s" r="G147" s="15">
-        <v>382</v>
-      </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="16"/>
-      <c t="s" r="K147" s="17">
-        <v>383</v>
-      </c>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="17"/>
-      <c r="Q147" s="17"/>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="P148" s="13">
+        <v>9329.1149999999998</v>
+      </c>
+      <c r="Q148" s="13"/>
+    </row>
+    <row r="149" ht="16.5" customHeight="1">
+      <c t="s" r="A149" s="14">
+        <v>386</v>
+      </c>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c t="s" r="G149" s="15">
+        <v>387</v>
+      </c>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c t="s" r="K149" s="17">
+        <v>388</v>
+      </c>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
+      <c r="P149" s="17"/>
+      <c r="Q149" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="707">
+  <mergeCells count="717">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7105,10 +7186,20 @@
     <mergeCell ref="H145:K145"/>
     <mergeCell ref="L145:M145"/>
     <mergeCell ref="N145:O145"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="K147:Q147"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="P148:Q148"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="K149:Q149"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-15_00-00.xlsx
+++ b/DaySale_2025-09-15_00-00.xlsx
@@ -845,6 +845,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>131.0000</t>
+  </si>
+  <si>
     <t>TEBOFORTIN 40MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -1005,6 +1014,9 @@
   </si>
   <si>
     <t>77.0000</t>
+  </si>
+  <si>
+    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -4846,7 +4858,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4856,14 +4868,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4872,7 +4884,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4889,14 +4901,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4912,7 +4924,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4929,7 +4941,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4945,7 +4957,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4978,7 +4990,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4988,11 +5000,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -5004,14 +5016,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5021,11 +5033,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -5037,14 +5049,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5077,7 +5089,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5120,11 +5132,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5136,14 +5148,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5153,7 +5165,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>119</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5186,11 +5198,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>61</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5202,14 +5214,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5219,11 +5231,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>61</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5235,14 +5247,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5252,14 +5264,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5268,14 +5280,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5285,14 +5297,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5301,14 +5313,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5318,11 +5330,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5334,14 +5346,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5351,14 +5363,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5367,14 +5379,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5384,11 +5396,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>28</v>
@@ -5400,14 +5412,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5417,11 +5429,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>28</v>
@@ -5433,14 +5445,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>324</v>
+        <v>111</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5450,14 +5462,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>182</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5466,14 +5478,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5483,14 +5495,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5499,14 +5511,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5516,11 +5528,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5532,7 +5544,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5549,11 +5561,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>259</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5572,7 +5584,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5582,11 +5594,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>125</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>222</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5598,14 +5610,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5615,11 +5627,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5631,28 +5643,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>125</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5671,21 +5683,21 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5697,14 +5709,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>340</v>
+        <v>182</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5714,14 +5726,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>339</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5737,7 +5749,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>182</v>
+        <v>342</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5763,14 +5775,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5780,14 +5792,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5803,7 +5815,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5813,14 +5825,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5829,14 +5841,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5846,14 +5858,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5862,14 +5874,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5879,14 +5891,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5895,14 +5907,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5912,14 +5924,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>357</v>
+        <v>252</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5928,14 +5940,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5945,11 +5957,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5961,14 +5973,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>22</v>
+        <v>360</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5978,14 +5990,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>364</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5994,14 +6006,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -6011,14 +6023,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>154</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>366</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6027,7 +6039,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -6044,14 +6056,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>368</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6060,14 +6072,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6077,14 +6089,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>194</v>
+        <v>350</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>370</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6100,7 +6112,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6110,11 +6122,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>88</v>
+        <v>372</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>89</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6126,14 +6138,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6143,11 +6155,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6159,14 +6171,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>374</v>
+        <v>182</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6176,11 +6188,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>344</v>
+        <v>88</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>375</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6199,7 +6211,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6209,14 +6221,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6232,7 +6244,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>265</v>
+        <v>378</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6242,11 +6254,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6258,7 +6270,7 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -6275,14 +6287,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>89</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>20</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6291,14 +6303,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6308,11 +6320,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>61</v>
+        <v>348</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>245</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6324,14 +6336,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6341,14 +6353,14 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6357,14 +6369,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6374,14 +6386,14 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6390,14 +6402,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6407,11 +6419,11 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>357</v>
+        <v>14</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>358</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q146" s="12">
         <v>16</v>
@@ -6423,14 +6435,14 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>67</v>
+        <v>386</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -6440,49 +6452,115 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
+        <v>387</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>16</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>71</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>361</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>362</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c t="s" r="C149" s="8">
+        <v>388</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>67</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c t="s" r="L149" s="10">
+        <v>71</v>
+      </c>
+      <c r="M149" s="10"/>
+      <c t="s" r="N149" s="8">
+        <v>389</v>
+      </c>
+      <c r="O149" s="8"/>
+      <c t="s" r="P149" s="11">
         <v>219</v>
       </c>
-      <c t="s" r="Q147" s="12">
+      <c t="s" r="Q149" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="148" ht="24.75" customHeight="1">
-      <c r="P148" s="13">
-        <v>9329.1149999999998</v>
-      </c>
-      <c r="Q148" s="13"/>
-    </row>
-    <row r="149" ht="16.5" customHeight="1">
-      <c t="s" r="A149" s="14">
-        <v>386</v>
-      </c>
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c t="s" r="G149" s="15">
-        <v>387</v>
-      </c>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="16"/>
-      <c t="s" r="K149" s="17">
-        <v>388</v>
-      </c>
-      <c r="L149" s="17"/>
-      <c r="M149" s="17"/>
-      <c r="N149" s="17"/>
-      <c r="O149" s="17"/>
-      <c r="P149" s="17"/>
-      <c r="Q149" s="17"/>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="P150" s="13">
+        <v>9556.1149999999998</v>
+      </c>
+      <c r="Q150" s="13"/>
+    </row>
+    <row r="151" ht="16.5" customHeight="1">
+      <c t="s" r="A151" s="14">
+        <v>390</v>
+      </c>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c t="s" r="G151" s="15">
+        <v>391</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c t="s" r="K151" s="17">
+        <v>392</v>
+      </c>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="717">
+  <mergeCells count="727">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7196,10 +7274,20 @@
     <mergeCell ref="H147:K147"/>
     <mergeCell ref="L147:M147"/>
     <mergeCell ref="N147:O147"/>
-    <mergeCell ref="P148:Q148"/>
-    <mergeCell ref="A149:F149"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="K149:Q149"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="K151:Q151"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
